--- a/ai_trading_manager.xlsx
+++ b/ai_trading_manager.xlsx
@@ -25,8 +25,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Roadmap'!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Epics'!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Phase0_Foundation'!$A$1:$Q$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Phase1_Wow_MVP'!$A$1:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Phase2_Playbooks_Automation'!$A$1:$Q$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Phase1_Wow_MVP'!$A$1:$Q$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Phase2_Playbooks_Automation'!$A$1:$Q$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Phase3_Moat_Hardening'!$A$1:$Q$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Backend_Tasks'!$A$1:$Q$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Frontend_Tasks'!$A$1:$Q$24</definedName>
@@ -1017,9 +1017,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1092,9 +1092,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1167,9 +1167,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1242,9 +1242,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1317,9 +1317,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1391,9 +1391,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1466,9 +1466,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1523,7 +1523,7 @@
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>backend/app/models/ai_trading_manager_traces.py
-backend/alembic/versions/xxxx_ai_tm_trace विस्तार.py</t>
+backend/alembic/versions/xxxx_ai_tm_trace_expand.py</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1541,9 +1541,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1616,9 +1616,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1691,9 +1691,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1766,9 +1766,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1841,9 +1841,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1916,13 +1916,22 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q14"/>
-  <dataValidations count="3">
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
@@ -2129,9 +2138,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -2204,9 +2213,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -2278,9 +2287,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -2353,9 +2362,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2428,9 +2437,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2503,9 +2512,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2577,9 +2586,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2651,9 +2660,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2725,9 +2734,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2799,9 +2808,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2873,13 +2882,22 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q12"/>
-  <dataValidations count="3">
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
@@ -4185,7 +4203,7 @@
           <t>Create the canonical DTOs/schemas used across orchestrator, RiskGate, execution, reconciliation, and monitoring to enforce stable contracts and support replayable audits.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>BE</t>
@@ -4228,9 +4246,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -4303,9 +4321,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -4378,9 +4396,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -4453,9 +4471,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -4528,9 +4546,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -4603,9 +4621,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -4677,9 +4695,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -4752,9 +4770,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -4827,9 +4845,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -4902,9 +4920,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -4976,9 +4994,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -5051,9 +5069,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -5125,9 +5143,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -5199,9 +5217,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -5274,9 +5292,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -5349,9 +5367,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -5424,9 +5442,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -5498,9 +5516,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -5573,9 +5591,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -5648,9 +5666,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -5723,9 +5741,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -5798,9 +5816,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -5872,9 +5890,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -5947,9 +5965,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -6022,9 +6040,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -6052,7 +6070,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>E1-T009, E3-T002</t>
+          <t>E1-T002, E3-T002</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6096,9 +6114,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -6171,9 +6189,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -6246,9 +6264,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -6320,9 +6338,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -6395,9 +6413,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -6470,9 +6488,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -6545,9 +6563,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -6619,9 +6637,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -6694,9 +6712,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -6769,9 +6787,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -6797,7 +6815,7 @@
           <t>Add the UI shell for a persistent right-side assistant panel, gated behind ai_assistant_enabled to keep Phase 0 merge-safe.</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>FE</t>
@@ -6840,9 +6858,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -6915,9 +6933,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -6990,9 +7008,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -7065,9 +7083,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -7139,9 +7157,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -7214,13 +7232,22 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q42"/>
-  <dataValidations count="3">
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
@@ -7241,7 +7268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7409,7 +7436,7 @@
       <c r="K2" s="2" t="inlineStr">
         <is>
           <t>backend/app/models/ai_trading_manager_traces.py
-backend/alembic/versions/xxxx_ai_tm_trace विस्तार.py</t>
+backend/alembic/versions/xxxx_ai_tm_trace_expand.py</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
@@ -7427,9 +7454,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -7502,9 +7529,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -7577,9 +7604,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -7587,27 +7614,27 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>E1-T005</t>
+          <t>E0-T017</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Implement Kite MCP client wrapper</t>
+          <t>Implement trace redaction and secret scrubbing</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Add a thin client wrapper to call Kite MCP endpoints with retries, timeouts, and structured error mapping for stable backend behavior.</t>
+          <t>Prevent leakage of broker tokens, API keys, and PII into DecisionTrace storage and exports.</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>E1-T001, E0-T009</t>
+          <t>E1-T006, E0-T003</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7617,7 +7644,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -7627,23 +7654,24 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>- Client supports timeouts, retry with backoff, and rate limit handling
-- Errors are mapped to typed exceptions with safe user-facing messages</t>
+          <t>- All tokens/secrets are stored only in server-side secret tables
+- Trace payloads are scrubbed before persistence and export</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_client.py</t>
+          <t>backend/app/services/ai_trading_manager/redaction.py
+backend/tests/test_ai_tm_redaction.py</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>kite_mcp_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Emit kite_mcp.request metrics (latency, status, retries) and correlation_id.</t>
+          <t>Log redaction hits count and redact types (token/key/PII).</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7651,9 +7679,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -7666,27 +7694,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>E1-T006</t>
+          <t>E1-T005</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Implement server-side Kite MCP token storage</t>
+          <t>Implement Kite MCP client wrapper</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Store Kite MCP tokens server-side only using the existing encryption utilities; frontend never receives broker credentials.</t>
+          <t>Add a thin client wrapper to call Kite MCP endpoints with retries, timeouts, and structured error mapping for stable backend behavior.</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>E1-T005</t>
+          <t>E1-T001, E0-T009</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -7701,14 +7729,13 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>- Tokens are encrypted at rest (reuse backend/app/core/crypto.py)
-- No token fields are returned by any API responses</t>
+          <t>- Client supports timeouts, retry with backoff, and rate limit handling
+- Errors are mapped to typed exceptions with safe user-facing messages</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>backend/app/models/broker.py
-backend/app/services/ai_trading_manager/brokers/kite_mcp_tokens.py</t>
+          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_client.py</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -7718,7 +7745,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>Audit token create/refresh/revoke events without logging the token value.</t>
+          <t>Emit kite_mcp.request metrics (latency, status, retries) and correlation_id.</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7726,9 +7753,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -7741,27 +7768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>E1-T007</t>
+          <t>E1-T006</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Add Kite MCP connect/status APIs</t>
+          <t>Implement server-side Kite MCP token storage</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Expose backend APIs for initiating Kite MCP connection, checking status, and revoking tokens to support UI setup.</t>
+          <t>Store Kite MCP tokens server-side only using the existing encryption utilities; frontend never receives broker credentials.</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E1-T006</t>
+          <t>E1-T005</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DB</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -7771,19 +7798,19 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>- Endpoints exist: GET status, POST connect/callback (as required), POST revoke
-- Status includes last_success_ts and scoped capabilities</t>
+          <t>- Tokens are encrypted at rest (reuse backend/app/core/crypto.py)
+- No token fields are returned by any API responses</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_broker_kite_mcp.py
-frontend/src/services/aiBroker.ts</t>
+          <t>backend/app/models/broker.py
+backend/app/services/ai_trading_manager/brokers/kite_mcp_tokens.py</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -7793,7 +7820,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>Emit kite_mcp.auth.status with connected=true/false and last_success_ts.</t>
+          <t>Audit token create/refresh/revoke events without logging the token value.</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7801,9 +7828,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -7816,22 +7843,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>E1-T008</t>
+          <t>E1-T007</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Implement broker snapshot ingestion via Kite MCP</t>
+          <t>Add Kite MCP connect/status APIs</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Fetch holdings/positions/orders/margins from Kite MCP and persist BrokerSnapshot for audit, reconciliation, and RiskGate inputs.</t>
+          <t>Expose backend APIs for initiating Kite MCP connection, checking status, and revoking tokens to support UI setup.</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E1-T005, E0-T002</t>
+          <t>E1-T006</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7846,19 +7873,19 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>- get_snapshot returns BrokerSnapshot and persists it with snapshot_id
-- Snapshot ingestion is idempotent for identical as_of_ts</t>
+          <t>- Endpoints exist: GET status, POST connect/callback (as required), POST revoke
+- Status includes last_success_ts and scoped capabilities</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py
-backend/app/services/ai_trading_manager/audit_store.py</t>
+          <t>backend/app/api/ai_broker_kite_mcp.py
+frontend/src/services/aiBroker.ts</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -7868,7 +7895,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>Log snapshot.fetch success/failure and snapshot freshness.</t>
+          <t>Emit kite_mcp.auth.status with connected=true/false and last_success_ts.</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -7876,9 +7903,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -7891,22 +7918,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>E1-T009</t>
+          <t>E1-T008</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Implement quotes fetch and cache via Kite MCP</t>
+          <t>Implement broker snapshot ingestion via Kite MCP</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Fetch quotes needed for monitoring and RiskGate checks, caching within a bounded TTL to control broker load.</t>
+          <t>Fetch holdings/positions/orders/margins from Kite MCP and persist BrokerSnapshot for audit, reconciliation, and RiskGate inputs.</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>E1-T005</t>
+          <t>E1-T005, E0-T002</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7921,19 +7948,19 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>- get_quotes returns Quote[] with as_of_ts
-- Quote age is exposed so RiskGate can deny stale quotes</t>
+          <t>- get_snapshot returns BrokerSnapshot and persists it with snapshot_id
+- Snapshot ingestion is idempotent for identical as_of_ts</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py
-backend/app/services/ai_trading_manager/quotes_cache.py</t>
+backend/app/services/ai_trading_manager/audit_store.py</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -7943,7 +7970,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>Emit quotes.cache_hit/cache_miss and quote_age_sec distribution.</t>
+          <t>Log snapshot.fetch success/failure and snapshot freshness.</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7951,9 +7978,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -7966,22 +7993,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>E1-T010</t>
+          <t>E1-T009</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Implement order placement via Kite MCP adapter</t>
+          <t>Implement quotes fetch and cache via Kite MCP</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Place broker orders through Kite MCP with full correlation/idempotency context; broker remains the ultimate truth for order status.</t>
+          <t>Fetch quotes needed for monitoring and RiskGate checks, caching within a bounded TTL to control broker load.</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>E4-T008, E1-T005</t>
+          <t>E1-T005</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7996,28 +8023,29 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>- place_order sends OrderIntent and returns BrokerOrderAck with broker_order_id
-- Duplicate calls with same idempotency key do not create multiple broker orders</t>
+          <t>- get_quotes returns Quote[] with as_of_ts
+- Quote age is exposed so RiskGate can deny stale quotes</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py</t>
+          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py
+backend/app/services/ai_trading_manager/quotes_cache.py</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled, kite_mcp_enabled</t>
+          <t>kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>Audit order.place requests with correlation_id, idempotency_key, and broker_order_id.</t>
+          <t>Emit quotes.cache_hit/cache_miss and quote_age_sec distribution.</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -8025,9 +8053,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -8040,22 +8068,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>E1-T011</t>
+          <t>E1-T010</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Implement orders/trades polling via Kite MCP</t>
+          <t>Implement order placement via Kite MCP adapter</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Support querying broker orders and trades for post-trade verification and reconciliation.</t>
+          <t>Place broker orders through Kite MCP with full correlation/idempotency context; broker remains the ultimate truth for order status.</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E1-T005</t>
+          <t>E4-T008, E1-T005</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -8065,18 +8093,18 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>- get_orders/get_trades endpoints are wired and return normalized DTOs
-- Polling handles transient errors and respects rate limits</t>
+          <t>- place_order sends OrderIntent and returns BrokerOrderAck with broker_order_id
+- Duplicate calls with same idempotency key do not create multiple broker orders</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -8086,12 +8114,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>kite_mcp_enabled</t>
+          <t>ai_execution_enabled, kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>Emit broker.poll metrics (poll_count, latency, errors).</t>
+          <t>Audit order.place requests with correlation_id, idempotency_key, and broker_order_id.</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -8099,9 +8127,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -8114,59 +8142,58 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>E1-T012</t>
+          <t>E1-T011</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Add broker-down degradation and circuit breaker</t>
+          <t>Implement orders/trades polling via Kite MCP</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>When Kite MCP is unavailable, degrade AI TM to read-only mode with explicit UI warnings and block execution.</t>
+          <t>Support querying broker orders and trades for post-trade verification and reconciliation.</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>E1-T005, E4-T005</t>
+          <t>E1-T005</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>- Circuit breaker opens on repeated failures and cools down automatically
-- Execution endpoints refuse to place orders when broker is down</t>
+          <t>- get_orders/get_trades endpoints are wired and return normalized DTOs
+- Polling handles transient errors and respects rate limits</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/circuit_breaker.py
-frontend/src/components/ai/BrokerStatusBanner.tsx</t>
+          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>kite_mcp_enabled, ai_execution_enabled</t>
+          <t>kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>Emit broker.circuit_state and broker.down incidents with duration.</t>
+          <t>Emit broker.poll metrics (poll_count, latency, errors).</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -8174,9 +8201,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -8184,32 +8211,32 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>E2-T006</t>
+          <t>E1-T012</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Schedule reconciliation after execution and on cadence</t>
+          <t>Add broker-down degradation and circuit breaker</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Run reconciler after each execution and on a safe cadence to ensure broker truth and expected ledger converge quickly.</t>
+          <t>When Kite MCP is unavailable, degrade AI TM to read-only mode with explicit UI warnings and block execution.</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>E4-T009, E6-T002</t>
+          <t>E1-T005, E4-T005</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -8224,23 +8251,24 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>- After successful execution, reconciliation runs automatically
-- Cadence run is bounded (max work per cycle) and can be disabled</t>
+          <t>- Circuit breaker opens on repeated failures and cools down automatically
+- Execution endpoints refuse to place orders when broker is down</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/reconciler_runner.py</t>
+          <t>backend/app/services/ai_trading_manager/brokers/circuit_breaker.py
+frontend/src/components/ai/BrokerStatusBanner.tsx</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>kite_mcp_enabled, ai_execution_enabled</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>Emit reconciliation.runner metrics (runs, duration, failures).</t>
+          <t>Emit broker.circuit_state and broker.down incidents with duration.</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -8248,9 +8276,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -8263,22 +8291,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>E2-T007</t>
+          <t>E2-T006</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Implement post-trade verification polling</t>
+          <t>Schedule reconciliation after execution and on cadence</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Poll broker order status until a terminal state or timeout, then reconcile; ensures partial fills and delayed completion are handled safely.</t>
+          <t>Run reconciler after each execution and on a safe cadence to ensure broker truth and expected ledger converge quickly.</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E1-T011, E4-T008</t>
+          <t>E4-T009, E6-T002</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8298,24 +8326,23 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>- Execution flow polls until COMPLETE/REJECTED/CANCELLED or timeout
-- Timeout produces an exception with actionable next steps</t>
+          <t>- After successful execution, reconciliation runs automatically
+- Cadence run is bounded (max work per cycle) and can be disabled</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/post_trade_verifier.py
-backend/tests/test_ai_tm_post_trade_verifier.py</t>
+          <t>backend/app/services/ai_trading_manager/reconciler_runner.py</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>Emit post_trade.verify metrics (polls, timeout_rate).</t>
+          <t>Emit reconciliation.runner metrics (runs, duration, failures).</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8323,9 +8350,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -8338,27 +8365,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>E2-T008</t>
+          <t>E2-T007</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Add exception detail view with trace linkage</t>
+          <t>Implement post-trade verification polling</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Enhance Exceptions Center with a detail view that links to DecisionTrace and shows broker vs expected diffs.</t>
+          <t>Poll broker order status until a terminal state or timeout, then reconcile; ensures partial fills and delayed completion are handled safely.</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E2-T005, E5-T012</t>
+          <t>E1-T011, E4-T008</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -8368,29 +8395,29 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>- Exception detail shows delta breakdown and related broker ids
-- One-click navigation to DecisionTrace viewer works</t>
+          <t>- Execution flow polls until COMPLETE/REJECTED/CANCELLED or timeout
+- Timeout produces an exception with actionable next steps</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/views/ExceptionsCenterPage.tsx
-frontend/src/views/DecisionTracePage.tsx</t>
+          <t>backend/app/services/ai_trading_manager/post_trade_verifier.py
+backend/tests/test_ai_tm_post_trade_verifier.py</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>Track exception detail views and trace open actions.</t>
+          <t>Emit post_trade.verify metrics (polls, timeout_rate).</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8398,9 +8425,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -8413,49 +8440,49 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>E2-T009</t>
+          <t>E2-T008</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Add exception action stubs (ack/snooze)</t>
+          <t>Add exception detail view with trace linkage</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Implement non-trading exception actions (acknowledge/snooze) to manage noise while keeping remediation execution for Phase 2.</t>
+          <t>Enhance Exceptions Center with a detail view that links to DecisionTrace and shows broker vs expected diffs.</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E0-T011</t>
+          <t>E2-T005, E5-T012</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>- POST /api/ai/exceptions/{id}/ack updates state and writes audit log
-- UI updates immediately and shows acknowledged state</t>
+          <t>- Exception detail shows delta breakdown and related broker ids
+- One-click navigation to DecisionTrace viewer works</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_trading_manager.py
-frontend/src/views/ExceptionsCenterPage.tsx</t>
+          <t>frontend/src/views/ExceptionsCenterPage.tsx
+frontend/src/views/DecisionTracePage.tsx</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -8465,7 +8492,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>Audit exception.ack events with user_id and reason (optional).</t>
+          <t>Track exception detail views and trace open actions.</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8473,9 +8500,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -8483,27 +8510,27 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>E3-T007</t>
+          <t>E2-T009</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Integrate RiskGate into plan→execute pipeline</t>
+          <t>Add exception action stubs (ack/snooze)</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Ensure every delegated execution runs RiskGate and is vetoed deterministically when any policy fails.</t>
+          <t>Implement non-trading exception actions (acknowledge/snooze) to manage noise while keeping remediation execution for Phase 2.</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>E3-T006, E5-T009, E4-T012</t>
+          <t>E0-T011</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8513,34 +8540,34 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>- Execution API refuses to place orders when RiskGate returns deny
-- DecisionTrace stores full RiskGate input references and result</t>
+          <t>- POST /api/ai/exceptions/{id}/ack updates state and writes audit log
+- UI updates immediately and shows acknowledged state</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/orchestrator.py
-backend/app/services/ai_trading_manager/riskgate/engine.py</t>
+          <t>backend/app/api/ai_trading_manager.py
+frontend/src/views/ExceptionsCenterPage.tsx</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>Emit riskgate.veto events with reason codes and decision_id.</t>
+          <t>Audit exception.ack events with user_id and reason (optional).</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8548,9 +8575,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -8563,49 +8590,49 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>E3-T008</t>
+          <t>E3-T007</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Render policy veto reason codes in UI</t>
+          <t>Integrate RiskGate into plan→execute pipeline</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Show a clear veto card that maps deterministic reason codes to actionable explanations; no override is offered inside ST.</t>
+          <t>Ensure every delegated execution runs RiskGate and is vetoed deterministically when any policy fails.</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>E3-T007, E5-T011</t>
+          <t>E3-T006, E5-T009, E4-T012</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>- UI shows deny reasons and suggested adjustments
-- UI does not provide any 'override' action for a veto</t>
+          <t>- Execution API refuses to place orders when RiskGate returns deny
+- DecisionTrace stores full RiskGate input references and result</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/components/ai/VetoCard.tsx
-frontend/src/components/ai/reasonCodeCopy.ts</t>
+          <t>backend/app/services/ai_trading_manager/orchestrator.py
+backend/app/services/ai_trading_manager/riskgate/engine.py</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -8615,7 +8642,7 @@
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>Track veto card impressions and reasons shown.</t>
+          <t>Emit riskgate.veto events with reason codes and decision_id.</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8623,9 +8650,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -8638,27 +8665,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>E3-T009</t>
+          <t>E3-T008</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Add risk preview API (no execution)</t>
+          <t>Render policy veto reason codes in UI</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Add an endpoint to evaluate RiskGate for a proposed TradePlan without placing orders, used by Plan Viewer and remediation flows.</t>
+          <t>Show a clear veto card that maps deterministic reason codes to actionable explanations; no override is offered inside ST.</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>E3-T007</t>
+          <t>E3-T007, E5-T011</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -8673,14 +8700,14 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>- POST /api/ai/risk/preview returns RiskDecision for a plan
-- Preview creates a DecisionTrace marked as PREVIEW only</t>
+          <t>- UI shows deny reasons and suggested adjustments
+- UI does not provide any 'override' action for a veto</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_trading_manager.py
-backend/tests/test_ai_tm_risk_preview.py</t>
+          <t>frontend/src/components/ai/VetoCard.tsx
+frontend/src/components/ai/reasonCodeCopy.ts</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -8690,7 +8717,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>Emit risk.preview metrics and veto reason distribution.</t>
+          <t>Track veto card impressions and reasons shown.</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8698,9 +8725,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -8713,17 +8740,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>E3-T010</t>
+          <t>E3-T009</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Compute and log risk metrics</t>
+          <t>Add risk preview API (no execution)</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Compute portfolio exposure metrics (concentration, leverage, open positions) and record them in RiskDecision for explainability.</t>
+          <t>Add an endpoint to evaluate RiskGate for a proposed TradePlan without placing orders, used by Plan Viewer and remediation flows.</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -8738,7 +8765,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -8748,14 +8775,14 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>- RiskDecision includes computed metrics
-- Metrics appear in DecisionTrace viewer</t>
+          <t>- POST /api/ai/risk/preview returns RiskDecision for a plan
+- Preview creates a DecisionTrace marked as PREVIEW only</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/riskgate/metrics.py
-frontend/src/views/DecisionTracePage.tsx</t>
+          <t>backend/app/api/ai_trading_manager.py
+backend/tests/test_ai_tm_risk_preview.py</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -8765,7 +8792,7 @@
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>Emit risk.metrics distributions (exposure, leverage) for monitoring.</t>
+          <t>Emit risk.preview metrics and veto reason distribution.</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -8773,9 +8800,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -8788,17 +8815,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>E3-T011</t>
+          <t>E3-T010</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Enforce no-override policy for AI execution</t>
+          <t>Compute and log risk metrics</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Ensure there is no internal override path for AI delegated execution; policy veto is mandatory and cannot be bypassed within ST.</t>
+          <t>Compute portfolio exposure metrics (concentration, leverage, open positions) and record them in RiskDecision for explainability.</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -8808,29 +8835,29 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>- Attempting to call execution endpoints without RiskGate allow returns 403/deny
-- Frontend does not render any override controls for vetoed trades</t>
+          <t>- RiskDecision includes computed metrics
+- Metrics appear in DecisionTrace viewer</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>backend/tests/test_ai_tm_no_override.py
-frontend/src/components/ai/VetoCard.tsx</t>
+          <t>backend/app/services/ai_trading_manager/riskgate/metrics.py
+frontend/src/views/DecisionTracePage.tsx</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -8840,7 +8867,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>N/A (tests)</t>
+          <t>Emit risk.metrics distributions (exposure, leverage) for monitoring.</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8848,9 +8875,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -8858,54 +8885,54 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>E4-T007</t>
+          <t>E3-T011</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Implement plan-to-order translation for core order types</t>
+          <t>Enforce no-override policy for AI execution</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Translate TradePlan into broker-ready OrderIntent for common market/limit orders while preserving determinism.</t>
+          <t>Ensure there is no internal override path for AI delegated execution; policy veto is mandatory and cannot be bypassed within ST.</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>E4-T001, E5-T009</t>
+          <t>E3-T007</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>- Translator supports BUY/SELL for MIS/CNC and market/limit skeleton
-- Unit tests cover translation edge cases and rounding</t>
+          <t>- Attempting to call execution endpoints without RiskGate allow returns 403/deny
+- Frontend does not render any override controls for vetoed trades</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/translator.py
-backend/tests/test_ai_tm_translator.py</t>
+          <t>backend/tests/test_ai_tm_no_override.py
+frontend/src/components/ai/VetoCard.tsx</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -8915,7 +8942,7 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>Log translation warnings (e.g., rounding adjustments).</t>
+          <t>N/A (tests)</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -8923,9 +8950,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -8938,22 +8965,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>E4-T008</t>
+          <t>E4-T007</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Implement broker order placement with idempotency</t>
+          <t>Implement plan-to-order translation for core order types</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Place orders via BrokerAdapter only after RiskGate allow, using idempotency and correlation IDs to ensure safety.</t>
+          <t>Translate TradePlan into broker-ready OrderIntent for common market/limit orders while preserving determinism.</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>E3-T007, E4-T002, E1-T010</t>
+          <t>E4-T001, E5-T009</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -8963,33 +8990,34 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>- Given same idempotency_key, no more than one broker order is placed
-- DecisionTrace stores request/response for each broker order</t>
+          <t>- Translator supports BUY/SELL for MIS/CNC and market/limit skeleton
+- Unit tests cover translation edge cases and rounding</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/engine.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/translator.py
+backend/tests/test_ai_tm_translator.py</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled, kite_mcp_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.order_place metrics (success/failure, retries).</t>
+          <t>Log translation warnings (e.g., rounding adjustments).</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -8997,9 +9025,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -9012,22 +9040,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>E4-T009</t>
+          <t>E4-T008</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Implement status polling and terminal state handling</t>
+          <t>Implement broker order placement with idempotency</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Poll broker order status for placed orders and update DecisionTrace and expected ledger state without assuming immediate completion.</t>
+          <t>Place orders via BrokerAdapter only after RiskGate allow, using idempotency and correlation IDs to ensure safety.</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>E1-T011, E4-T008</t>
+          <t>E3-T007, E4-T002, E1-T010</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9037,7 +9065,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -9047,23 +9075,23 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>- Engine detects terminal states and records them
-- Non-terminal states result in bounded polling then exception</t>
+          <t>- Given same idempotency_key, no more than one broker order is placed
+- DecisionTrace stores request/response for each broker order</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/status_poller.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/engine.py</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>ai_execution_enabled, kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.status_poll metrics and timeout count.</t>
+          <t>Emit execution.order_place metrics (success/failure, retries).</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9071,9 +9099,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -9086,22 +9114,22 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>E4-T010</t>
+          <t>E4-T009</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Handle partial fills safely</t>
+          <t>Implement status polling and terminal state handling</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Track partial fills and ensure no duplicate follow-up orders are placed; reconciliation must surface partial-fill exceptions when needed.</t>
+          <t>Poll broker order status for placed orders and update DecisionTrace and expected ledger state without assuming immediate completion.</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>E4-T009, E2-T007</t>
+          <t>E1-T011, E4-T008</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -9121,14 +9149,13 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>- Partial fills are detected and recorded in DecisionTrace
-- Reconciler emits partial-fill delta and exception when applicable</t>
+          <t>- Engine detects terminal states and records them
+- Non-terminal states result in bounded polling then exception</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/fills.py
-backend/app/services/ai_trading_manager/reconciliation_rules.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/status_poller.py</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -9138,7 +9165,7 @@
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.partial_fill events with filled_qty and remaining_qty.</t>
+          <t>Emit execution.status_poll metrics and timeout count.</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -9146,9 +9173,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -9161,32 +9188,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>E4-T011</t>
+          <t>E4-T010</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Enforce execute-on-instruction semantics</t>
+          <t>Handle partial fills safely</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Ensure trades are executed only when the user message is an explicit instruction; monitoring triggers and suggestions never auto-execute in Phase 1.</t>
+          <t>Track partial fills and ensure no duplicate follow-up orders are placed; reconciliation must surface partial-fill exceptions when needed.</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>E5-T013</t>
+          <t>E4-T009, E2-T007</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -9196,14 +9223,14 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>- Suggested plans do not execute without a user instruction message
-- Execution endpoints require an authorization_message_id</t>
+          <t>- Partial fills are detected and recorded in DecisionTrace
+- Reconciler emits partial-fill delta and exception when applicable</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>backend/tests/test_ai_tm_execute_on_instruction.py
-backend/app/services/ai_trading_manager/orchestrator.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/fills.py
+backend/app/services/ai_trading_manager/reconciliation_rules.py</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -9213,7 +9240,7 @@
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>N/A (tests)</t>
+          <t>Emit execution.partial_fill events with filled_qty and remaining_qty.</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -9221,9 +9248,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -9236,32 +9263,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>E4-T012</t>
+          <t>E4-T011</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Implement execute API endpoint</t>
+          <t>Enforce execute-on-instruction semantics</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Expose the backend execution endpoint that takes plan_id + idempotency_key + authorization message reference and returns an execution outcome.</t>
+          <t>Ensure trades are executed only when the user message is an explicit instruction; monitoring triggers and suggestions never auto-execute in Phase 1.</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>E4-T003, E4-T008</t>
+          <t>E5-T013</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -9271,14 +9298,14 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>- POST /api/ai/execute validates plan, runs RiskGate, and executes only on allow
-- Endpoint is gated by ai_execution_enabled and records DecisionTrace</t>
+          <t>- Suggested plans do not execute without a user instruction message
+- Execution endpoints require an authorization_message_id</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_trading_manager.py
-backend/tests/test_ai_tm_execute_api.py</t>
+          <t>backend/tests/test_ai_tm_execute_on_instruction.py
+backend/app/services/ai_trading_manager/orchestrator.py</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -9288,7 +9315,7 @@
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>Audit execute attempts with outcome allow/deny/error and correlation_id.</t>
+          <t>N/A (tests)</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9296,9 +9323,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -9311,27 +9338,27 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>E4-T013</t>
+          <t>E4-T012</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Add broker integration tests for execution scenarios</t>
+          <t>Implement execute API endpoint</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Add integration tests using broker-mock harness for rejected orders, delayed completion, and partial fills.</t>
+          <t>Expose the backend execution endpoint that takes plan_id + idempotency_key + authorization message reference and returns an execution outcome.</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>E4-T012, E1-T004</t>
+          <t>E4-T003, E4-T008</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -9341,18 +9368,19 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>- Tests cover reject, delayed status, partial fill scenarios
-- No test places real broker orders</t>
+          <t>- POST /api/ai/execute validates plan, runs RiskGate, and executes only on allow
+- Endpoint is gated by ai_execution_enabled and records DecisionTrace</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>backend/tests/test_ai_tm_execution_integration.py</t>
+          <t>backend/app/api/ai_trading_manager.py
+backend/tests/test_ai_tm_execute_api.py</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
@@ -9362,7 +9390,7 @@
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>N/A (tests)</t>
+          <t>Audit execute attempts with outcome allow/deny/error and correlation_id.</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -9370,9 +9398,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -9385,32 +9413,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>E4-T014</t>
+          <t>E4-T013</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Add execution observability (metrics + structured logs)</t>
+          <t>Add broker integration tests for execution scenarios</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Add metrics for retries, failures, veto rates, and broker latency to prioritize boring reliability.</t>
+          <t>Add integration tests using broker-mock harness for rejected orders, delayed completion, and partial fills.</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>E4-T012, E0-T009</t>
+          <t>E4-T012, E1-T004</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -9420,24 +9448,23 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>- Metrics emitted for execute latency and error rate
-- Logs include correlation_id and idempotency_key</t>
+          <t>- Tests cover reject, delayed status, partial fill scenarios
+- No test places real broker orders</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/metrics.py
-backend/app/core/logging.py</t>
+          <t>backend/tests/test_ai_tm_execution_integration.py</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>Emit execution metrics with labels: broker, outcome, retry_count.</t>
+          <t>N/A (tests)</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -9445,9 +9472,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -9455,37 +9482,37 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>E5-T006</t>
+          <t>E4-T014</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Implement assistant panel always-present UX</t>
+          <t>Add execution observability (metrics + structured logs)</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Deliver the Phase 1 contract: assistant is always-present in the ST Web UI (persistent panel) with a clear collapsed state.</t>
+          <t>Add metrics for retries, failures, veto rates, and broker latency to prioritize boring reliability.</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>E5-T004</t>
+          <t>E4-T012, E0-T009</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -9495,24 +9522,24 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>- Panel persists across routes and does not unmount on navigation
-- Collapsed state preserves unread indicators/action cards</t>
+          <t>- Metrics emitted for execute latency and error rate
+- Logs include correlation_id and idempotency_key</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/layouts/MainLayout.tsx
-frontend/src/components/ai/AssistantPanel.tsx</t>
+          <t>backend/app/services/ai_trading_manager/metrics.py
+backend/app/core/logging.py</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>Track panel persistence bugs via UI error reporting.</t>
+          <t>Emit execution metrics with labels: broker, outcome, retry_count.</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -9520,9 +9547,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -9535,27 +9562,27 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>E5-T007</t>
+          <t>E5-T006</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Implement tool router with explicit scopes</t>
+          <t>Implement assistant panel always-present UX</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Implement tool routing in the orchestrator with explicit scope checks and auditing for ST tools and broker tools.</t>
+          <t>Deliver the Phase 1 contract: assistant is always-present in the ST Web UI (persistent panel) with a clear collapsed state.</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E5-T001, E1-T001</t>
+          <t>E5-T004</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -9565,19 +9592,19 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>- Each tool call is logged with scope and parameters summary
-- Unauthorized tools are blocked and recorded in DecisionTrace</t>
+          <t>- Panel persists across routes and does not unmount on navigation
+- Collapsed state preserves unread indicators/action cards</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/tool_router.py
-backend/app/services/ai_trading_manager/tools/*.py</t>
+          <t>frontend/src/layouts/MainLayout.tsx
+frontend/src/components/ai/AssistantPanel.tsx</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -9587,7 +9614,7 @@
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>Emit tool_router.denied metrics and tool latency histograms.</t>
+          <t>Track panel persistence bugs via UI error reporting.</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -9595,9 +9622,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -9610,22 +9637,22 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>E5-T008</t>
+          <t>E5-T007</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Implement intent parsing to TradeIntent</t>
+          <t>Implement tool router with explicit scopes</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Parse user messages into a TradeIntent structure; combine LLM extraction with deterministic validation and fallback parsing.</t>
+          <t>Implement tool routing in the orchestrator with explicit scope checks and auditing for ST tools and broker tools.</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>E5-T002, E0-T001</t>
+          <t>E5-T001, E1-T001</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -9645,14 +9672,14 @@
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>- TradeIntent extraction validates symbols/side/product/constraints
-- Invalid intents return a clarifying question instead of executing</t>
+          <t>- Each tool call is logged with scope and parameters summary
+- Unauthorized tools are blocked and recorded in DecisionTrace</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/intent_parser.py
-backend/tests/test_ai_tm_intent_parser.py</t>
+          <t>backend/app/services/ai_trading_manager/tool_router.py
+backend/app/services/ai_trading_manager/tools/*.py</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
@@ -9662,7 +9689,7 @@
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>Emit intent.parse success/failure counts with reason categories.</t>
+          <t>Emit tool_router.denied metrics and tool latency histograms.</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -9670,9 +9697,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -9685,22 +9712,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>E5-T009</t>
+          <t>E5-T008</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Implement deterministic PlanEngine normalization</t>
+          <t>Implement intent parsing to TradeIntent</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Normalize and validate TradePlan/MonitorPlan structures deterministically so execution boundary is stable even if LLM output varies.</t>
+          <t>Parse user messages into a TradeIntent structure; combine LLM extraction with deterministic validation and fallback parsing.</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>E5-T008, E0-T001</t>
+          <t>E5-T002, E0-T001</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -9720,14 +9747,14 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>- PlanEngine rejects invalid plans with explicit errors
-- Normalized plans are stable (ordering, defaults, ids) for same input</t>
+          <t>- TradeIntent extraction validates symbols/side/product/constraints
+- Invalid intents return a clarifying question instead of executing</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/plan_engine.py
-backend/tests/test_ai_tm_plan_engine.py</t>
+          <t>backend/app/services/ai_trading_manager/intent_parser.py
+backend/tests/test_ai_tm_intent_parser.py</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
@@ -9737,7 +9764,7 @@
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>Emit plan_engine.validation_error counts and plan_normalization timings.</t>
+          <t>Emit intent.parse success/failure counts with reason categories.</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -9745,9 +9772,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -9760,27 +9787,27 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>E5-T010</t>
+          <t>E5-T009</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Build Plan Viewer UI</t>
+          <t>Implement deterministic PlanEngine normalization</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Render TradePlan details, normalized structure, and risk preview in a dedicated viewer and in action cards.</t>
+          <t>Normalize and validate TradePlan/MonitorPlan structures deterministically so execution boundary is stable even if LLM output varies.</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>E5-T005, E3-T009</t>
+          <t>E5-T008, E0-T001</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -9790,19 +9817,19 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>- Plan Viewer shows plan summary + raw JSON with copy/download
-- Risk preview results are displayed next to the plan</t>
+          <t>- PlanEngine rejects invalid plans with explicit errors
+- Normalized plans are stable (ordering, defaults, ids) for same input</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/components/ai/PlanViewer.tsx
-frontend/src/services/aiTradingManager.ts</t>
+          <t>backend/app/services/ai_trading_manager/plan_engine.py
+backend/tests/test_ai_tm_plan_engine.py</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
@@ -9812,7 +9839,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>Track plan viewer opens and risk preview latency.</t>
+          <t>Emit plan_engine.validation_error counts and plan_normalization timings.</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -9820,9 +9847,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -9835,22 +9862,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>E5-T011</t>
+          <t>E5-T010</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Implement Action Cards UI framework</t>
+          <t>Build Plan Viewer UI</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Implement the Action Card framework (monitor, execute, veto, reconcile) so assistant can propose structured actions with trace links.</t>
+          <t>Render TradePlan details, normalized structure, and risk preview in a dedicated viewer and in action cards.</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>E5-T006</t>
+          <t>E5-T005, E3-T009</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9870,14 +9897,14 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>- Cards render consistently and support primary/secondary actions
-- Cards link to DecisionTrace and plan viewer</t>
+          <t>- Plan Viewer shows plan summary + raw JSON with copy/download
+- Risk preview results are displayed next to the plan</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/components/ai/ActionCards.tsx
-frontend/src/components/ai/cards/*.tsx</t>
+          <t>frontend/src/components/ai/PlanViewer.tsx
+frontend/src/services/aiTradingManager.ts</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
@@ -9887,7 +9914,7 @@
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>Track card impressions and action clicks.</t>
+          <t>Track plan viewer opens and risk preview latency.</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -9895,9 +9922,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -9910,22 +9937,22 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>E5-T012</t>
+          <t>E5-T011</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Implement DecisionTrace viewer timeline</t>
+          <t>Implement Action Cards UI framework</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Implement a DecisionTrace timeline view: inputs → tools → RiskGate → orders → reconciliation, with filters and drilldowns.</t>
+          <t>Implement the Action Card framework (monitor, execute, veto, reconcile) so assistant can propose structured actions with trace links.</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>E5-T005, E0-T010</t>
+          <t>E5-T006</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9945,14 +9972,14 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>- Timeline shows tool calls and risk decisions in order
-- Viewer links broker_order_ids to exception details when present</t>
+          <t>- Cards render consistently and support primary/secondary actions
+- Cards link to DecisionTrace and plan viewer</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/views/DecisionTracePage.tsx
-frontend/src/components/ai/TraceTimeline.tsx</t>
+          <t>frontend/src/components/ai/ActionCards.tsx
+frontend/src/components/ai/cards/*.tsx</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
@@ -9962,7 +9989,7 @@
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>Track trace viewer load time and error rates.</t>
+          <t>Track card impressions and action clicks.</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -9970,9 +9997,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -9985,27 +10012,27 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>E5-T013</t>
+          <t>E5-T012</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Implement message-as-authorization contract</t>
+          <t>Implement DecisionTrace viewer timeline</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Treat an explicit user message as authorization for delegated execution, without additional per-order confirmations, while still policy-gated.</t>
+          <t>Implement a DecisionTrace timeline view: inputs → tools → RiskGate → orders → reconciliation, with filters and drilldowns.</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>E5-T002, E4-T012</t>
+          <t>E5-T005, E0-T010</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -10015,29 +10042,29 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>- Execution requires authorization_message_id referencing the user message
-- DecisionTrace stores the exact user message used for authorization</t>
+          <t>- Timeline shows tool calls and risk decisions in order
+- Viewer links broker_order_ids to exception details when present</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/orchestrator.py
-backend/app/schemas/ai_trading_manager.py</t>
+          <t>frontend/src/views/DecisionTracePage.tsx
+frontend/src/components/ai/TraceTimeline.tsx</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>Audit authorization usage with message_id + decision_id.</t>
+          <t>Track trace viewer load time and error rates.</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -10045,9 +10072,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -10060,59 +10087,59 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>E5-T014</t>
+          <t>E5-T013</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Add assistant navigation to Exceptions Center</t>
+          <t>Implement message-as-authorization contract</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Add assistant shortcuts to open Exceptions Center and filtered views tied to current decisions.</t>
+          <t>Treat an explicit user message as authorization for delegated execution, without additional per-order confirmations, while still policy-gated.</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>E2-T005, E5-T011</t>
+          <t>E5-T002, E4-T012</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>- Action card can open Exceptions Center with prefilled filters
-- Exceptions Center can navigate back to related trace</t>
+          <t>- Execution requires authorization_message_id referencing the user message
+- DecisionTrace stores the exact user message used for authorization</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/components/ai/ActionCards.tsx
-frontend/src/routes/AppRoutes.tsx</t>
+          <t>backend/app/services/ai_trading_manager/orchestrator.py
+backend/app/schemas/ai_trading_manager.py</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>Track navigation from assistant to exceptions center.</t>
+          <t>Audit authorization usage with message_id + decision_id.</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -10120,9 +10147,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -10135,20 +10162,24 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>E5-T015</t>
+          <t>E5-T014</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Add frontend feature flags for AI TM</t>
+          <t>Add assistant navigation to Exceptions Center</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Implement ai_assistant_enabled/ai_execution_enabled/kite_mcp_enabled/monitoring_enabled UI gating via query params and local storage.</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr"/>
+          <t>Add assistant shortcuts to open Exceptions Center and filtered views tied to current decisions.</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>E2-T005, E5-T011</t>
+        </is>
+      </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>FE</t>
@@ -10166,24 +10197,24 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>- Flags can be toggled via URL params for dev
-- UI hides AI TM features when flags are off</t>
+          <t>- Action card can open Exceptions Center with prefilled filters
+- Exceptions Center can navigate back to related trace</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/config/aiFeatures.ts
-frontend/src/App.tsx</t>
+          <t>frontend/src/components/ai/ActionCards.tsx
+frontend/src/routes/AppRoutes.tsx</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled, ai_execution_enabled, kite_mcp_enabled, monitoring_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>Track feature flag states in client-side diagnostics logs.</t>
+          <t>Track navigation from assistant to exceptions center.</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -10191,9 +10222,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -10201,64 +10232,60 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>E6-T004</t>
+          <t>E5-T015</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Implement deterministic condition evaluator</t>
+          <t>Add frontend feature flags for AI TM</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Evaluate monitor job conditions using quotes + portfolio state deterministically, producing triggers with reason details.</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>E1-T009, E6-T001</t>
-        </is>
-      </c>
+          <t>Implement ai_assistant_enabled/ai_execution_enabled/kite_mcp_enabled/monitoring_enabled UI gating via query params and local storage.</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>- Evaluator returns same result for same inputs
-- Evaluator records inputs_used in DecisionTrace</t>
+          <t>- Flags can be toggled via URL params for dev
+- UI hides AI TM features when flags are off</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/monitoring/evaluator.py
-backend/tests/test_ai_tm_monitor_evaluator.py</t>
+          <t>frontend/src/config/aiFeatures.ts
+frontend/src/App.tsx</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>ai_assistant_enabled, ai_execution_enabled, kite_mcp_enabled, monitoring_enabled</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>Emit monitoring.eval metrics and trigger counts.</t>
+          <t>Track feature flag states in client-side diagnostics logs.</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -10266,9 +10293,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -10281,22 +10308,22 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>E6-T005</t>
+          <t>E6-T004</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Run monitor jobs on cadence and persist triggers</t>
+          <t>Implement deterministic condition evaluator</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Run monitor jobs on schedule, persist trigger events, and push action cards to the assistant thread.</t>
+          <t>Evaluate monitor job conditions using quotes + portfolio state deterministically, producing triggers with reason details.</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>E6-T002, E6-T004, E0-T005</t>
+          <t>E1-T009, E6-T001</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -10316,14 +10343,14 @@
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>- Scheduler computes next_run_ts and persists last_run_ts
-- Triggers are persisted and deduped per (job, window)</t>
+          <t>- Evaluator returns same result for same inputs
+- Evaluator records inputs_used in DecisionTrace</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/monitoring/scheduler.py
-backend/app/services/ai_trading_manager/monitoring/store.py</t>
+          <t>backend/app/services/ai_trading_manager/monitoring/evaluator.py
+backend/tests/test_ai_tm_monitor_evaluator.py</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
@@ -10333,7 +10360,7 @@
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>Emit monitoring.job_run metrics and trigger_dedupe hits.</t>
+          <t>Emit monitoring.eval metrics and trigger counts.</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -10341,9 +10368,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -10356,27 +10383,27 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>E6-T006</t>
+          <t>E6-T005</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Render trigger action cards in assistant UI</t>
+          <t>Run monitor jobs on cadence and persist triggers</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Display monitoring triggers as assistant action cards with quick actions (view details, propose plan, acknowledge).</t>
+          <t>Run monitor jobs on schedule, persist trigger events, and push action cards to the assistant thread.</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>E5-T011, E6-T005</t>
+          <t>E6-T002, E6-T004, E0-T005</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -10391,13 +10418,14 @@
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>- Trigger cards appear in assistant panel with timestamps
-- Cards link to monitor job and decision trace</t>
+          <t>- Scheduler computes next_run_ts and persists last_run_ts
+- Triggers are persisted and deduped per (job, window)</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/components/ai/cards/MonitorTriggerCard.tsx</t>
+          <t>backend/app/services/ai_trading_manager/monitoring/scheduler.py
+backend/app/services/ai_trading_manager/monitoring/store.py</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
@@ -10407,7 +10435,7 @@
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>Track trigger card impressions and acknowledgements.</t>
+          <t>Emit monitoring.job_run metrics and trigger_dedupe hits.</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -10415,9 +10443,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -10430,27 +10458,27 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>E6-T007</t>
+          <t>E6-T006</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Integrate execute-on-instruction from triggers</t>
+          <t>Render trigger action cards in assistant UI</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>When a trigger fires, assistant proposes a plan; execution occurs only when user explicitly instructs (message = authorization).</t>
+          <t>Display monitoring triggers as assistant action cards with quick actions (view details, propose plan, acknowledge).</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>E6-T006, E4-T011</t>
+          <t>E5-T011, E6-T005</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -10460,29 +10488,28 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>- Trigger flow creates a proposed plan and risk preview
-- No auto-execution occurs without explicit authorization message</t>
+          <t>- Trigger cards appear in assistant panel with timestamps
+- Cards link to monitor job and decision trace</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/orchestrator.py
-frontend/src/components/ai/cards/MonitorTriggerCard.tsx</t>
+          <t>frontend/src/components/ai/cards/MonitorTriggerCard.tsx</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled, ai_execution_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>Audit trigger→plan proposals with monitor_job_id and decision_id.</t>
+          <t>Track trigger card impressions and acknowledgements.</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -10490,9 +10517,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -10505,73 +10532,157 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
+          <t>E6-T007</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Integrate execute-on-instruction from triggers</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>When a trigger fires, assistant proposes a plan; execution occurs only when user explicitly instructs (message = authorization).</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>E6-T006, E4-T011</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>- Trigger flow creates a proposed plan and risk preview
+- No auto-execution occurs without explicit authorization message</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>backend/app/services/ai_trading_manager/orchestrator.py
+frontend/src/components/ai/cards/MonitorTriggerCard.tsx</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>monitoring_enabled, ai_execution_enabled</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>Audit trigger→plan proposals with monitor_job_id and decision_id.</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
           <t>E6-T008</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>Add monitoring telemetry and failure handling</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>Add metrics and robust failure handling for the scheduler (per-job errors, retries, backoff) to avoid noisy loops.</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>E6-T005</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>DevOps</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>- Scheduler logs failures per job and backs off
 - Metrics include job failure rate and mean run duration</t>
         </is>
       </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="K45" s="2" t="inlineStr">
         <is>
           <t>backend/app/services/ai_trading_manager/monitoring/scheduler.py
 backend/app/services/ai_trading_manager/metrics.py</t>
         </is>
       </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>monitoring_enabled</t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr">
+      <c r="M45" s="2" t="inlineStr">
         <is>
           <t>Emit monitoring.scheduler.failure metrics and backoff state.</t>
         </is>
       </c>
-      <c r="N44" s="2" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q44"/>
-  <dataValidations count="3">
+  <autoFilter ref="A1:Q45"/>
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
@@ -10592,7 +10703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10778,9 +10889,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -10788,27 +10899,27 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>E0-T017</t>
+          <t>E1-T013</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Implement trace redaction and secret scrubbing</t>
+          <t>Implement broker rate-limit budgeting</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Prevent leakage of broker tokens, API keys, and PII into DecisionTrace storage and exports.</t>
+          <t>Coordinate broker API usage across monitoring, reconciliation, and execution using a shared budget to prevent throttling.</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>E1-T006, E0-T003</t>
+          <t>E6-T005, E1-T009</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -10818,34 +10929,33 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>- All tokens/secrets are stored only in server-side secret tables
-- Trace payloads are scrubbed before persistence and export</t>
+          <t>- Shared rate limiter enforces max requests/sec
+- Monitoring backs off automatically when budget is exhausted</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/redaction.py
-backend/tests/test_ai_tm_redaction.py</t>
+          <t>backend/app/services/ai_trading_manager/brokers/rate_limit.py</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>monitoring_enabled, kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>Log redaction hits count and redact types (token/key/PII).</t>
+          <t>Emit broker.rate_limit.throttles and per-component request counts.</t>
         </is>
       </c>
       <c r="N3" s="2" t="inlineStr">
@@ -10853,9 +10963,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -10868,27 +10978,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>E1-T013</t>
+          <t>E1-T014</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Implement broker rate-limit budgeting</t>
+          <t>Add multi-account broker partitioning</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Coordinate broker API usage across monitoring, reconciliation, and execution using a shared budget to prevent throttling.</t>
+          <t>Support account_id scoping across snapshots, idempotency, and monitor jobs to prepare for multi-account use.</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>E6-T005, E1-T009</t>
+          <t>E0-T007</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DB</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -10903,23 +11013,24 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>- Shared rate limiter enforces max requests/sec
-- Monitoring backs off automatically when budget is exhausted</t>
+          <t>- All AI TM tables are partitioned by account_id
+- APIs require account_id and enforce isolation</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/rate_limit.py</t>
+          <t>backend/app/models/ai_trading_manager_*.py
+backend/app/api/ai_trading_manager.py</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled, kite_mcp_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>Emit broker.rate_limit.throttles and per-component request counts.</t>
+          <t>Log account_id on all AI TM actions and enforce access checks.</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -10927,9 +11038,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -10937,32 +11048,32 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>E1-T014</t>
+          <t>E2-T010</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Add multi-account broker partitioning</t>
+          <t>Implement remediation: resync expected ledger from broker truth</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Support account_id scoping across snapshots, idempotency, and monitor jobs to prepare for multi-account use.</t>
+          <t>Add a safe remediation action to rebuild ST expected ledger state from broker truth snapshots, with full audit and guardrails.</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>E0-T007</t>
+          <t>E2-T006, E0-T002</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -10972,18 +11083,18 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>- All AI TM tables are partitioned by account_id
-- APIs require account_id and enforce isolation</t>
+          <t>- Resync is read-only w.r.t broker and only updates expected ledger
+- DecisionTrace records before/after snapshots and action outcome</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>backend/app/models/ai_trading_manager_*.py
+          <t>backend/app/services/ai_trading_manager/remediation.py
 backend/app/api/ai_trading_manager.py</t>
         </is>
       </c>
@@ -10994,7 +11105,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Log account_id on all AI TM actions and enforce access checks.</t>
+          <t>Emit remediation.resync events with affected entity counts.</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11002,9 +11113,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -11017,22 +11128,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>E2-T010</t>
+          <t>E2-T011</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Implement remediation: resync expected ledger from broker truth</t>
+          <t>Implement remediation: retry execution with safeguards</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Add a safe remediation action to rebuild ST expected ledger state from broker truth snapshots, with full audit and guardrails.</t>
+          <t>Allow retrying a failed execution via Exceptions Center using a new idempotency key, after re-running RiskGate and policy checks.</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>E2-T006, E0-T002</t>
+          <t>E4-T012, E3-T009</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11052,24 +11163,24 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>- Resync is read-only w.r.t broker and only updates expected ledger
-- DecisionTrace records before/after snapshots and action outcome</t>
+          <t>- Retry requires explicit user instruction (message = authorization)
+- RiskGate is re-evaluated and can veto the retry</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
           <t>backend/app/services/ai_trading_manager/remediation.py
-backend/app/api/ai_trading_manager.py</t>
+frontend/src/components/ai/ActionCards.tsx</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>Emit remediation.resync events with affected entity counts.</t>
+          <t>Audit remediation.retry with original decision_id and new decision_id.</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11077,9 +11188,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -11092,27 +11203,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>E2-T011</t>
+          <t>E2-T012</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Implement remediation: retry execution with safeguards</t>
+          <t>Add remediation suggestions (close/hedge proposals)</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Allow retrying a failed execution via Exceptions Center using a new idempotency key, after re-running RiskGate and policy checks.</t>
+          <t>Generate deterministic remediation suggestions for risky exceptions (e.g., approaching MIS square-off) as action cards; execution still requires instruction/arming.</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E4-T012, E3-T009</t>
+          <t>E6-T012, E3-T004</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -11122,29 +11233,29 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>- Retry requires explicit user instruction (message = authorization)
-- RiskGate is re-evaluated and can veto the retry</t>
+          <t>- UI shows remediation suggestion cards with clear rationale
+- No broker orders are placed unless user instructs and policy allows</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/remediation.py
-frontend/src/components/ai/ActionCards.tsx</t>
+          <t>frontend/src/components/ai/RemediationCards.tsx
+backend/app/services/ai_trading_manager/remediation_suggestions.py</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>Audit remediation.retry with original decision_id and new decision_id.</t>
+          <t>Track suggestion impressions and user follow-through.</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11152,9 +11263,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -11167,27 +11278,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>E2-T012</t>
+          <t>E2-T013</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Add remediation suggestions (close/hedge proposals)</t>
+          <t>Detect manual broker trades and expected-ledger drift</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Generate deterministic remediation suggestions for risky exceptions (e.g., approaching MIS square-off) as action cards; execution still requires instruction/arming.</t>
+          <t>Classify deltas caused by manual broker actions and surface them as drift exceptions with clear remediation options.</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E6-T012, E3-T004</t>
+          <t>E1-T008, E2-T002</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -11202,14 +11313,14 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>- UI shows remediation suggestion cards with clear rationale
-- No broker orders are placed unless user instructs and policy allows</t>
+          <t>- Reconciler labels drift vs ST-caused mismatches
+- Exceptions Center shows 'manual broker trade detected' with details</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/components/ai/RemediationCards.tsx
-backend/app/services/ai_trading_manager/remediation_suggestions.py</t>
+          <t>backend/app/services/ai_trading_manager/reconciliation_rules.py
+frontend/src/views/ExceptionsCenterPage.tsx</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -11219,7 +11330,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>Track suggestion impressions and user follow-through.</t>
+          <t>Emit drift.detected events and counts per day.</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11227,9 +11338,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -11237,27 +11348,27 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>E2-T013</t>
+          <t>E3-T012</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Detect manual broker trades and expected-ledger drift</t>
+          <t>Add playbook-specific RiskGate rules</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Classify deltas caused by manual broker actions and surface them as drift exceptions with clear remediation options.</t>
+          <t>Add policies for armed playbooks: max frequency, allowed windows, and explicit arming requirement.</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>E1-T008, E2-T002</t>
+          <t>E6-T009, E3-T007</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11277,24 +11388,23 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>- Reconciler labels drift vs ST-caused mismatches
-- Exceptions Center shows 'manual broker trade detected' with details</t>
+          <t>- Unarmed playbooks are denied with reason code PLAYBOOK_NOT_ARMED
+- Frequency limits deny when exceeded and produce deterministic reason</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/reconciliation_rules.py
-frontend/src/views/ExceptionsCenterPage.tsx</t>
+          <t>backend/app/services/ai_trading_manager/riskgate/rules_playbooks.py</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>Emit drift.detected events and counts per day.</t>
+          <t>Emit playbook.riskgate denies with playbook_id.</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -11302,9 +11412,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -11317,22 +11427,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>E3-T012</t>
+          <t>E3-T013</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Add playbook-specific RiskGate rules</t>
+          <t>Add portfolio risk budgets and correlation constraints</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Add policies for armed playbooks: max frequency, allowed windows, and explicit arming requirement.</t>
+          <t>Introduce portfolio-level risk budgets and correlation constraints; enforce as policy where feasible and record as advisory otherwise.</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>E6-T009, E3-T007</t>
+          <t>E5-T018, E3-T010</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -11342,7 +11452,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -11352,23 +11462,24 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>- Unarmed playbooks are denied with reason code PLAYBOOK_NOT_ARMED
-- Frequency limits deny when exceeded and produce deterministic reason</t>
+          <t>- RiskGate can deny when budgets are exceeded (configurable)
+- DecisionTrace stores budget inputs and computed correlation metrics</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/riskgate/rules_playbooks.py</t>
+          <t>backend/app/services/ai_trading_manager/riskgate/rules_portfolio.py
+backend/app/services/risk_unified_store.py</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>Emit playbook.riskgate denies with playbook_id.</t>
+          <t>Emit portfolio_budget metrics and deny rate.</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -11376,9 +11487,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -11391,32 +11502,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>E3-T013</t>
+          <t>E3-T014</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Add portfolio risk budgets and correlation constraints</t>
+          <t>Add policy versioning and pin evaluations to version</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Introduce portfolio-level risk budgets and correlation constraints; enforce as policy where feasible and record as advisory otherwise.</t>
+          <t>Version policies and record which version was used for each decision so replay is accurate over time.</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E5-T018, E3-T010</t>
+          <t>E3-T001, E0-T003</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DB</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -11426,14 +11537,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>- RiskGate can deny when budgets are exceeded (configurable)
-- DecisionTrace stores budget inputs and computed correlation metrics</t>
+          <t>- Policy versions are immutable and selectable
+- DecisionTrace stores policy_version and config hash</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/riskgate/rules_portfolio.py
-backend/app/services/risk_unified_store.py</t>
+          <t>backend/app/models/execution_policy.py
+backend/app/services/ai_trading_manager/policy_config.py</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -11443,7 +11554,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>Emit portfolio_budget metrics and deny rate.</t>
+          <t>Audit policy.version_used per decision.</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11451,9 +11562,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -11461,54 +11572,53 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>E3-T014</t>
+          <t>E4-T015</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Add policy versioning and pin evaluations to version</t>
+          <t>Implement safe sequencing for bracket/SL orders</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Version policies and record which version was used for each decision so replay is accurate over time.</t>
+          <t>Add deterministic sequencing for multi-leg executions (entry + stop-loss) with safe abort behavior.</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>E3-T001, E0-T003</t>
+          <t>E4-T008, E3-T003</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>- Policy versions are immutable and selectable
-- DecisionTrace stores policy_version and config hash</t>
+          <t>- Multi-leg execution is idempotent per leg
+- If any leg fails, system stops and opens an exception</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>backend/app/models/execution_policy.py
-backend/app/services/ai_trading_manager/policy_config.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/sequencer.py</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -11518,7 +11628,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>Audit policy.version_used per decision.</t>
+          <t>Emit execution.sequence events per leg with outcome.</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -11526,9 +11636,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -11541,27 +11651,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>E4-T015</t>
+          <t>E4-T016</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Implement safe sequencing for bracket/SL orders</t>
+          <t>Implement expected ledger update saga</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Add deterministic sequencing for multi-leg executions (entry + stop-loss) with safe abort behavior.</t>
+          <t>Update ST expected ledger as a durable saga around execution steps, then reconcile against broker truth to converge.</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>E4-T008, E3-T003</t>
+          <t>E2-T006, E0-T002</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DB</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -11576,13 +11686,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>- Multi-leg execution is idempotent per leg
-- If any leg fails, system stops and opens an exception</t>
+          <t>- Expected ledger updates are transactional and replayable
+- Reconciler detects divergence and opens exceptions</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/sequencer.py</t>
+          <t>backend/app/services/ai_trading_manager/ledger.py
+backend/app/models/ai_trading_manager_snapshots.py</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -11592,7 +11703,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.sequence events per leg with outcome.</t>
+          <t>Emit ledger.expected_update events with entity counts.</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -11600,9 +11711,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -11615,32 +11726,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>E4-T016</t>
+          <t>E4-T017</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Implement expected ledger update saga</t>
+          <t>Support execution resume after interruptions</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Update ST expected ledger as a durable saga around execution steps, then reconcile against broker truth to converge.</t>
+          <t>Allow resuming an interrupted execution from stored idempotency state without placing duplicate orders.</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E2-T006, E0-T002</t>
+          <t>E4-T002, E4-T009</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -11650,14 +11761,14 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>- Expected ledger updates are transactional and replayable
-- Reconciler detects divergence and opens exceptions</t>
+          <t>- Restarting the backend does not lose execution state
+- Resume continues polling and reconciliation safely</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/ledger.py
-backend/app/models/ai_trading_manager_snapshots.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/engine.py
+backend/tests/test_ai_tm_execution_resume.py</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -11667,7 +11778,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>Emit ledger.expected_update events with entity counts.</t>
+          <t>Emit execution.resume events with prior broker_order_ids.</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -11675,9 +11786,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -11685,64 +11796,64 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>E4-T017</t>
+          <t>E5-T016</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Support execution resume after interruptions</t>
+          <t>Build playbook library UI</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Allow resuming an interrupted execution from stored idempotency state without placing duplicate orders.</t>
+          <t>Implement UI to save, edit, and run playbooks (saved intents/plans) as reusable workflows.</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E4-T002, E4-T009</t>
+          <t>E5-T010</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>- Restarting the backend does not lose execution state
-- Resume continues polling and reconciliation safely</t>
+          <t>- User can save a plan as a playbook and list playbooks
+- Running a playbook creates a DecisionTrace and action cards</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/engine.py
-backend/tests/test_ai_tm_execution_resume.py</t>
+          <t>frontend/src/views/PlaybooksPage.tsx
+frontend/src/services/aiTradingManager.ts</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.resume events with prior broker_order_ids.</t>
+          <t>Track playbook create/edit/run events.</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11750,9 +11861,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -11765,22 +11876,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>E5-T016</t>
+          <t>E5-T017</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Build playbook library UI</t>
+          <t>Implement arming UX for playbooks</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Implement UI to save, edit, and run playbooks (saved intents/plans) as reusable workflows.</t>
+          <t>Implement explicit arming/unarming flow for automations with clear safety messaging and kill switch visibility.</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E5-T010</t>
+          <t>E6-T009, E5-T016</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11790,24 +11901,23 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>- User can save a plan as a playbook and list playbooks
-- Running a playbook creates a DecisionTrace and action cards</t>
+          <t>- Arming requires explicit user action and is clearly indicated
+- UI shows when kill switch disables automation</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/views/PlaybooksPage.tsx
-frontend/src/services/aiTradingManager.ts</t>
+          <t>frontend/src/components/ai/PlaybookArmingDialog.tsx</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -11817,7 +11927,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>Track playbook create/edit/run events.</t>
+          <t>Audit arming toggles (playbook_id, user_id) via backend.</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11825,9 +11935,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -11840,22 +11950,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>E5-T017</t>
+          <t>E5-T018</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Implement arming UX for playbooks</t>
+          <t>Add portfolio decision intelligence views</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Implement explicit arming/unarming flow for automations with clear safety messaging and kill switch visibility.</t>
+          <t>Add views for drift, correlation, and risk budgets that inform suggestions while keeping execution deterministic and policy-gated.</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>E6-T009, E5-T016</t>
+          <t>E3-T010</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11865,33 +11975,34 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>- Arming requires explicit user action and is clearly indicated
-- UI shows when kill switch disables automation</t>
+          <t>- Dashboard cards show drift/correlation summaries
+- Data sources and as_of timestamps are shown for transparency</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/components/ai/PlaybookArmingDialog.tsx</t>
+          <t>frontend/src/views/PortfolioDIPanel.tsx
+frontend/src/services/analytics.ts</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>Audit arming toggles (playbook_id, user_id) via backend.</t>
+          <t>Track DI view usage and load times.</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11899,9 +12010,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -11914,32 +12025,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>E5-T018</t>
+          <t>E5-T019</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Add portfolio decision intelligence views</t>
+          <t>Link playbook runs to traces and exceptions</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Add views for drift, correlation, and risk budgets that inform suggestions while keeping execution deterministic and policy-gated.</t>
+          <t>Ensure playbook runs link to DecisionTrace and any resulting exceptions for review and debugging.</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>E3-T010</t>
+          <t>E0-T016, E2-T010</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -11949,24 +12060,24 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>- Dashboard cards show drift/correlation summaries
-- Data sources and as_of timestamps are shown for transparency</t>
+          <t>- Playbook run creates trace with playbook_id
+- Exceptions show originating playbook when applicable</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>frontend/src/views/PortfolioDIPanel.tsx
-frontend/src/services/analytics.ts</t>
+          <t>backend/app/services/ai_trading_manager/orchestrator.py
+backend/app/models/ai_trading_manager_reconciliation.py</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>Track DI view usage and load times.</t>
+          <t>Emit playbook.run.trace_linked events.</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11974,9 +12085,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -11984,54 +12095,54 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>E5-T019</t>
+          <t>E6-T009</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Link playbook runs to traces and exceptions</t>
+          <t>Implement playbook arming model (backend)</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Ensure playbook runs link to DecisionTrace and any resulting exceptions for review and debugging.</t>
+          <t>Persist arming state and enforce explicit enablement before any automation can execute.</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>E0-T016, E2-T010</t>
+          <t>E5-T016, E3-T012</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DB</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>- Playbook run creates trace with playbook_id
-- Exceptions show originating playbook when applicable</t>
+          <t>- Playbook armed_state is persisted and audited
+- Automation runner refuses to execute unarmed playbooks</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/orchestrator.py
-backend/app/models/ai_trading_manager_reconciliation.py</t>
+          <t>backend/app/models/ai_trading_manager_playbooks.py
+backend/alembic/versions/xxxx_ai_tm_playbooks.py</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -12041,7 +12152,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>Emit playbook.run.trace_linked events.</t>
+          <t>Audit playbook.armed_state changes with user_id.</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12049,9 +12160,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -12064,32 +12175,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>E6-T009</t>
+          <t>E6-T010</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Implement playbook arming model (backend)</t>
+          <t>Implement cautious automation runner</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Persist arming state and enforce explicit enablement before any automation can execute.</t>
+          <t>Execute only armed playbooks through the same RiskGate/ExecutionEngine pipeline, respecting kill switch and idempotency.</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>E5-T016, E3-T012</t>
+          <t>E6-T009, E4-T012</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -12099,24 +12210,24 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>- Playbook armed_state is persisted and audited
-- Automation runner refuses to execute unarmed playbooks</t>
+          <t>- Automation runs create DecisionTrace entries and are fully auditable
+- Kill switch disables automation immediately and stops new runs</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>backend/app/models/ai_trading_manager_playbooks.py
-backend/alembic/versions/xxxx_ai_tm_playbooks.py</t>
+          <t>backend/app/services/ai_trading_manager/automation/runner.py
+backend/tests/test_ai_tm_automation_runner.py</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>monitoring_enabled, ai_execution_enabled</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>Audit playbook.armed_state changes with user_id.</t>
+          <t>Emit automation.run metrics and veto rates.</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12124,9 +12235,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -12139,22 +12250,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>E6-T010</t>
+          <t>E6-T011</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Implement cautious automation runner</t>
+          <t>Add monitor job backtesting/simulation mode</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Execute only armed playbooks through the same RiskGate/ExecutionEngine pipeline, respecting kill switch and idempotency.</t>
+          <t>Allow simulating monitor jobs over historical quote data to validate conditions and reduce false triggers.</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E6-T009, E4-T012</t>
+          <t>E6-T004</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12164,34 +12275,34 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>- Automation runs create DecisionTrace entries and are fully auditable
-- Kill switch disables automation immediately and stops new runs</t>
+          <t>- Simulation produces deterministic trigger timelines
+- Simulation never places orders and is clearly labeled</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/automation/runner.py
-backend/tests/test_ai_tm_automation_runner.py</t>
+          <t>backend/app/services/ai_trading_manager/monitoring/simulator.py
+frontend/src/views/MonitorJobSimPage.tsx</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled, ai_execution_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>Emit automation.run metrics and veto rates.</t>
+          <t>Emit simulation.run metrics and duration.</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -12199,9 +12310,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -12214,22 +12325,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>E6-T011</t>
+          <t>E6-T012</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Add monitor job backtesting/simulation mode</t>
+          <t>Add portfolio-level monitors and trigger cards</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Allow simulating monitor jobs over historical quote data to validate conditions and reduce false triggers.</t>
+          <t>Add monitors for portfolio drawdown, drift, and concentration, emitting action cards and remediation suggestions.</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>E6-T004</t>
+          <t>E5-T018, E6-T005</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -12239,7 +12350,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -12248,114 +12359,48 @@
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>- Simulation produces deterministic trigger timelines
-- Simulation never places orders and is clearly labeled</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>backend/app/services/ai_trading_manager/monitoring/simulator.py
-frontend/src/views/MonitorJobSimPage.tsx</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>monitoring_enabled</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>Emit simulation.run metrics and duration.</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>E6</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>E6-T012</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>Add portfolio-level monitors and trigger cards</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Add monitors for portfolio drawdown, drift, and concentration, emitting action cards and remediation suggestions.</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>E5-T018, E6-T005</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>- Portfolio monitors compute metrics deterministically
 - Trigger cards show metric deltas and as_of timestamps</t>
         </is>
       </c>
-      <c r="K23" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>backend/app/services/ai_trading_manager/monitoring/portfolio_monitors.py
 frontend/src/components/ai/cards/PortfolioMonitorCard.tsx</t>
         </is>
       </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>monitoring_enabled</t>
         </is>
       </c>
-      <c r="M23" s="2" t="inlineStr">
+      <c r="M22" s="2" t="inlineStr">
         <is>
           <t>Emit portfolio_monitor triggers and metric distributions.</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q23"/>
-  <dataValidations count="3">
+  <autoFilter ref="A1:Q22"/>
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
@@ -12562,9 +12607,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -12637,9 +12682,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -12712,9 +12757,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -12787,9 +12832,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -12861,9 +12906,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -12936,9 +12981,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -13010,9 +13055,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -13085,9 +13130,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -13159,9 +13204,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -13233,9 +13278,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -13308,9 +13353,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -13383,9 +13428,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -13457,9 +13502,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -13531,9 +13576,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -13605,9 +13650,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -13680,9 +13725,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -13754,9 +13799,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -13828,9 +13873,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -13903,9 +13948,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -13977,9 +14022,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -14052,9 +14097,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -14126,9 +14171,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -14201,9 +14246,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -14276,13 +14321,22 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q25"/>
-  <dataValidations count="3">
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
@@ -14442,7 +14496,7 @@
           <t>Create the canonical DTOs/schemas used across orchestrator, RiskGate, execution, reconciliation, and monitoring to enforce stable contracts and support replayable audits.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>BE</t>
@@ -14485,9 +14539,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -14560,9 +14614,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -14635,9 +14689,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -14710,9 +14764,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -14784,9 +14838,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -14859,9 +14913,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -14933,9 +14987,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -15007,9 +15061,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -15082,9 +15136,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -15157,9 +15211,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -15231,9 +15285,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -15306,9 +15360,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -15381,9 +15435,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -15455,9 +15509,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -15530,9 +15584,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -15605,9 +15659,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -15635,7 +15689,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>E1-T009, E3-T002</t>
+          <t>E1-T002, E3-T002</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -15679,9 +15733,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -15754,9 +15808,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -15828,9 +15882,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -15903,9 +15957,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -15978,9 +16032,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -16053,9 +16107,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -16128,9 +16182,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -16203,9 +16257,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -16278,9 +16332,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -16352,9 +16406,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -16427,9 +16481,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -16502,9 +16556,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -16512,27 +16566,27 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>E1-T005</t>
+          <t>E0-T017</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Implement Kite MCP client wrapper</t>
+          <t>Implement trace redaction and secret scrubbing</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Add a thin client wrapper to call Kite MCP endpoints with retries, timeouts, and structured error mapping for stable backend behavior.</t>
+          <t>Prevent leakage of broker tokens, API keys, and PII into DecisionTrace storage and exports.</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>E1-T001, E0-T009</t>
+          <t>E1-T006, E0-T003</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16542,7 +16596,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -16552,23 +16606,24 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>- Client supports timeouts, retry with backoff, and rate limit handling
-- Errors are mapped to typed exceptions with safe user-facing messages</t>
+          <t>- All tokens/secrets are stored only in server-side secret tables
+- Trace payloads are scrubbed before persistence and export</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_client.py</t>
+          <t>backend/app/services/ai_trading_manager/redaction.py
+backend/tests/test_ai_tm_redaction.py</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>kite_mcp_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>Emit kite_mcp.request metrics (latency, status, retries) and correlation_id.</t>
+          <t>Log redaction hits count and redact types (token/key/PII).</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16576,9 +16631,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -16591,22 +16646,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>E1-T007</t>
+          <t>E1-T005</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Add Kite MCP connect/status APIs</t>
+          <t>Implement Kite MCP client wrapper</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Expose backend APIs for initiating Kite MCP connection, checking status, and revoking tokens to support UI setup.</t>
+          <t>Add a thin client wrapper to call Kite MCP endpoints with retries, timeouts, and structured error mapping for stable backend behavior.</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E1-T006</t>
+          <t>E1-T001, E0-T009</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -16621,19 +16676,18 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>- Endpoints exist: GET status, POST connect/callback (as required), POST revoke
-- Status includes last_success_ts and scoped capabilities</t>
+          <t>- Client supports timeouts, retry with backoff, and rate limit handling
+- Errors are mapped to typed exceptions with safe user-facing messages</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_broker_kite_mcp.py
-frontend/src/services/aiBroker.ts</t>
+          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_client.py</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -16643,7 +16697,7 @@
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>Emit kite_mcp.auth.status with connected=true/false and last_success_ts.</t>
+          <t>Emit kite_mcp.request metrics (latency, status, retries) and correlation_id.</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -16651,9 +16705,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -16666,22 +16720,22 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>E1-T008</t>
+          <t>E1-T007</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Implement broker snapshot ingestion via Kite MCP</t>
+          <t>Add Kite MCP connect/status APIs</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Fetch holdings/positions/orders/margins from Kite MCP and persist BrokerSnapshot for audit, reconciliation, and RiskGate inputs.</t>
+          <t>Expose backend APIs for initiating Kite MCP connection, checking status, and revoking tokens to support UI setup.</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>E1-T005, E0-T002</t>
+          <t>E1-T006</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -16696,19 +16750,19 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>- get_snapshot returns BrokerSnapshot and persists it with snapshot_id
-- Snapshot ingestion is idempotent for identical as_of_ts</t>
+          <t>- Endpoints exist: GET status, POST connect/callback (as required), POST revoke
+- Status includes last_success_ts and scoped capabilities</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py
-backend/app/services/ai_trading_manager/audit_store.py</t>
+          <t>backend/app/api/ai_broker_kite_mcp.py
+frontend/src/services/aiBroker.ts</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
@@ -16718,7 +16772,7 @@
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>Log snapshot.fetch success/failure and snapshot freshness.</t>
+          <t>Emit kite_mcp.auth.status with connected=true/false and last_success_ts.</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -16726,9 +16780,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -16741,22 +16795,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>E1-T009</t>
+          <t>E1-T008</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Implement quotes fetch and cache via Kite MCP</t>
+          <t>Implement broker snapshot ingestion via Kite MCP</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Fetch quotes needed for monitoring and RiskGate checks, caching within a bounded TTL to control broker load.</t>
+          <t>Fetch holdings/positions/orders/margins from Kite MCP and persist BrokerSnapshot for audit, reconciliation, and RiskGate inputs.</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>E1-T005</t>
+          <t>E1-T005, E0-T002</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -16771,19 +16825,19 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>- get_quotes returns Quote[] with as_of_ts
-- Quote age is exposed so RiskGate can deny stale quotes</t>
+          <t>- get_snapshot returns BrokerSnapshot and persists it with snapshot_id
+- Snapshot ingestion is idempotent for identical as_of_ts</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
           <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py
-backend/app/services/ai_trading_manager/quotes_cache.py</t>
+backend/app/services/ai_trading_manager/audit_store.py</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
@@ -16793,7 +16847,7 @@
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>Emit quotes.cache_hit/cache_miss and quote_age_sec distribution.</t>
+          <t>Log snapshot.fetch success/failure and snapshot freshness.</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -16801,9 +16855,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -16816,22 +16870,22 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>E1-T010</t>
+          <t>E1-T009</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Implement order placement via Kite MCP adapter</t>
+          <t>Implement quotes fetch and cache via Kite MCP</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Place broker orders through Kite MCP with full correlation/idempotency context; broker remains the ultimate truth for order status.</t>
+          <t>Fetch quotes needed for monitoring and RiskGate checks, caching within a bounded TTL to control broker load.</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>E4-T008, E1-T005</t>
+          <t>E1-T005</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -16846,28 +16900,29 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>- place_order sends OrderIntent and returns BrokerOrderAck with broker_order_id
-- Duplicate calls with same idempotency key do not create multiple broker orders</t>
+          <t>- get_quotes returns Quote[] with as_of_ts
+- Quote age is exposed so RiskGate can deny stale quotes</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py</t>
+          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py
+backend/app/services/ai_trading_manager/quotes_cache.py</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled, kite_mcp_enabled</t>
+          <t>kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>Audit order.place requests with correlation_id, idempotency_key, and broker_order_id.</t>
+          <t>Emit quotes.cache_hit/cache_miss and quote_age_sec distribution.</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -16875,9 +16930,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -16890,22 +16945,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>E1-T011</t>
+          <t>E1-T010</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Implement orders/trades polling via Kite MCP</t>
+          <t>Implement order placement via Kite MCP adapter</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Support querying broker orders and trades for post-trade verification and reconciliation.</t>
+          <t>Place broker orders through Kite MCP with full correlation/idempotency context; broker remains the ultimate truth for order status.</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>E1-T005</t>
+          <t>E4-T008, E1-T005</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -16915,18 +16970,18 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>- get_orders/get_trades endpoints are wired and return normalized DTOs
-- Polling handles transient errors and respects rate limits</t>
+          <t>- place_order sends OrderIntent and returns BrokerOrderAck with broker_order_id
+- Duplicate calls with same idempotency key do not create multiple broker orders</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -16936,12 +16991,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>kite_mcp_enabled</t>
+          <t>ai_execution_enabled, kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>Emit broker.poll metrics (poll_count, latency, errors).</t>
+          <t>Audit order.place requests with correlation_id, idempotency_key, and broker_order_id.</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -16949,9 +17004,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -16964,59 +17019,58 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>E1-T012</t>
+          <t>E1-T011</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Add broker-down degradation and circuit breaker</t>
+          <t>Implement orders/trades polling via Kite MCP</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>When Kite MCP is unavailable, degrade AI TM to read-only mode with explicit UI warnings and block execution.</t>
+          <t>Support querying broker orders and trades for post-trade verification and reconciliation.</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>E1-T005, E4-T005</t>
+          <t>E1-T005</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>- Circuit breaker opens on repeated failures and cools down automatically
-- Execution endpoints refuse to place orders when broker is down</t>
+          <t>- get_orders/get_trades endpoints are wired and return normalized DTOs
+- Polling handles transient errors and respects rate limits</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/brokers/circuit_breaker.py
-frontend/src/components/ai/BrokerStatusBanner.tsx</t>
+          <t>backend/app/services/ai_trading_manager/brokers/kite_mcp_adapter.py</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>kite_mcp_enabled, ai_execution_enabled</t>
+          <t>kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>Emit broker.circuit_state and broker.down incidents with duration.</t>
+          <t>Emit broker.poll metrics (poll_count, latency, errors).</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17024,9 +17078,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -17034,32 +17088,32 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>E2-T006</t>
+          <t>E1-T012</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Schedule reconciliation after execution and on cadence</t>
+          <t>Add broker-down degradation and circuit breaker</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Run reconciler after each execution and on a safe cadence to ensure broker truth and expected ledger converge quickly.</t>
+          <t>When Kite MCP is unavailable, degrade AI TM to read-only mode with explicit UI warnings and block execution.</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>E4-T009, E6-T002</t>
+          <t>E1-T005, E4-T005</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -17074,23 +17128,24 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>- After successful execution, reconciliation runs automatically
-- Cadence run is bounded (max work per cycle) and can be disabled</t>
+          <t>- Circuit breaker opens on repeated failures and cools down automatically
+- Execution endpoints refuse to place orders when broker is down</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/reconciler_runner.py</t>
+          <t>backend/app/services/ai_trading_manager/brokers/circuit_breaker.py
+frontend/src/components/ai/BrokerStatusBanner.tsx</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>kite_mcp_enabled, ai_execution_enabled</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>Emit reconciliation.runner metrics (runs, duration, failures).</t>
+          <t>Emit broker.circuit_state and broker.down incidents with duration.</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -17098,9 +17153,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -17113,22 +17168,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>E2-T007</t>
+          <t>E2-T006</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Implement post-trade verification polling</t>
+          <t>Schedule reconciliation after execution and on cadence</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Poll broker order status until a terminal state or timeout, then reconcile; ensures partial fills and delayed completion are handled safely.</t>
+          <t>Run reconciler after each execution and on a safe cadence to ensure broker truth and expected ledger converge quickly.</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>E1-T011, E4-T008</t>
+          <t>E4-T009, E6-T002</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -17148,24 +17203,23 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>- Execution flow polls until COMPLETE/REJECTED/CANCELLED or timeout
-- Timeout produces an exception with actionable next steps</t>
+          <t>- After successful execution, reconciliation runs automatically
+- Cadence run is bounded (max work per cycle) and can be disabled</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/post_trade_verifier.py
-backend/tests/test_ai_tm_post_trade_verifier.py</t>
+          <t>backend/app/services/ai_trading_manager/reconciler_runner.py</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>Emit post_trade.verify metrics (polls, timeout_rate).</t>
+          <t>Emit reconciliation.runner metrics (runs, duration, failures).</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -17173,9 +17227,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -17188,22 +17242,22 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>E2-T009</t>
+          <t>E2-T007</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Add exception action stubs (ack/snooze)</t>
+          <t>Implement post-trade verification polling</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Implement non-trading exception actions (acknowledge/snooze) to manage noise while keeping remediation execution for Phase 2.</t>
+          <t>Poll broker order status until a terminal state or timeout, then reconcile; ensures partial fills and delayed completion are handled safely.</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>E0-T011</t>
+          <t>E1-T011, E4-T008</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -17213,34 +17267,34 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>- POST /api/ai/exceptions/{id}/ack updates state and writes audit log
-- UI updates immediately and shows acknowledged state</t>
+          <t>- Execution flow polls until COMPLETE/REJECTED/CANCELLED or timeout
+- Timeout produces an exception with actionable next steps</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_trading_manager.py
-frontend/src/views/ExceptionsCenterPage.tsx</t>
+          <t>backend/app/services/ai_trading_manager/post_trade_verifier.py
+backend/tests/test_ai_tm_post_trade_verifier.py</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>Audit exception.ack events with user_id and reason (optional).</t>
+          <t>Emit post_trade.verify metrics (polls, timeout_rate).</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -17248,9 +17302,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -17258,27 +17312,27 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>E3-T007</t>
+          <t>E2-T009</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Integrate RiskGate into plan→execute pipeline</t>
+          <t>Add exception action stubs (ack/snooze)</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Ensure every delegated execution runs RiskGate and is vetoed deterministically when any policy fails.</t>
+          <t>Implement non-trading exception actions (acknowledge/snooze) to manage noise while keeping remediation execution for Phase 2.</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>E3-T006, E5-T009, E4-T012</t>
+          <t>E0-T011</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -17288,34 +17342,34 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>- Execution API refuses to place orders when RiskGate returns deny
-- DecisionTrace stores full RiskGate input references and result</t>
+          <t>- POST /api/ai/exceptions/{id}/ack updates state and writes audit log
+- UI updates immediately and shows acknowledged state</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/orchestrator.py
-backend/app/services/ai_trading_manager/riskgate/engine.py</t>
+          <t>backend/app/api/ai_trading_manager.py
+frontend/src/views/ExceptionsCenterPage.tsx</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>Emit riskgate.veto events with reason codes and decision_id.</t>
+          <t>Audit exception.ack events with user_id and reason (optional).</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -17323,9 +17377,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -17338,22 +17392,22 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>E3-T009</t>
+          <t>E3-T007</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Add risk preview API (no execution)</t>
+          <t>Integrate RiskGate into plan→execute pipeline</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Add an endpoint to evaluate RiskGate for a proposed TradePlan without placing orders, used by Plan Viewer and remediation flows.</t>
+          <t>Ensure every delegated execution runs RiskGate and is vetoed deterministically when any policy fails.</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>E3-T007</t>
+          <t>E3-T006, E5-T009, E4-T012</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -17363,24 +17417,24 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>- POST /api/ai/risk/preview returns RiskDecision for a plan
-- Preview creates a DecisionTrace marked as PREVIEW only</t>
+          <t>- Execution API refuses to place orders when RiskGate returns deny
+- DecisionTrace stores full RiskGate input references and result</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_trading_manager.py
-backend/tests/test_ai_tm_risk_preview.py</t>
+          <t>backend/app/services/ai_trading_manager/orchestrator.py
+backend/app/services/ai_trading_manager/riskgate/engine.py</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
@@ -17390,7 +17444,7 @@
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>Emit risk.preview metrics and veto reason distribution.</t>
+          <t>Emit riskgate.veto events with reason codes and decision_id.</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -17398,9 +17452,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -17413,17 +17467,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>E3-T010</t>
+          <t>E3-T009</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Compute and log risk metrics</t>
+          <t>Add risk preview API (no execution)</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Compute portfolio exposure metrics (concentration, leverage, open positions) and record them in RiskDecision for explainability.</t>
+          <t>Add an endpoint to evaluate RiskGate for a proposed TradePlan without placing orders, used by Plan Viewer and remediation flows.</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
@@ -17438,7 +17492,7 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -17448,14 +17502,14 @@
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>- RiskDecision includes computed metrics
-- Metrics appear in DecisionTrace viewer</t>
+          <t>- POST /api/ai/risk/preview returns RiskDecision for a plan
+- Preview creates a DecisionTrace marked as PREVIEW only</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/riskgate/metrics.py
-frontend/src/views/DecisionTracePage.tsx</t>
+          <t>backend/app/api/ai_trading_manager.py
+backend/tests/test_ai_tm_risk_preview.py</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
@@ -17465,7 +17519,7 @@
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>Emit risk.metrics distributions (exposure, leverage) for monitoring.</t>
+          <t>Emit risk.preview metrics and veto reason distribution.</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -17473,9 +17527,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -17483,27 +17537,27 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>E4-T007</t>
+          <t>E3-T010</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Implement plan-to-order translation for core order types</t>
+          <t>Compute and log risk metrics</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Translate TradePlan into broker-ready OrderIntent for common market/limit orders while preserving determinism.</t>
+          <t>Compute portfolio exposure metrics (concentration, leverage, open positions) and record them in RiskDecision for explainability.</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>E4-T001, E5-T009</t>
+          <t>E3-T007</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -17523,14 +17577,14 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>- Translator supports BUY/SELL for MIS/CNC and market/limit skeleton
-- Unit tests cover translation edge cases and rounding</t>
+          <t>- RiskDecision includes computed metrics
+- Metrics appear in DecisionTrace viewer</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/translator.py
-backend/tests/test_ai_tm_translator.py</t>
+          <t>backend/app/services/ai_trading_manager/riskgate/metrics.py
+frontend/src/views/DecisionTracePage.tsx</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
@@ -17540,7 +17594,7 @@
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>Log translation warnings (e.g., rounding adjustments).</t>
+          <t>Emit risk.metrics distributions (exposure, leverage) for monitoring.</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -17548,9 +17602,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -17563,22 +17617,22 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>E4-T008</t>
+          <t>E4-T007</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Implement broker order placement with idempotency</t>
+          <t>Implement plan-to-order translation for core order types</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Place orders via BrokerAdapter only after RiskGate allow, using idempotency and correlation IDs to ensure safety.</t>
+          <t>Translate TradePlan into broker-ready OrderIntent for common market/limit orders while preserving determinism.</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>E3-T007, E4-T002, E1-T010</t>
+          <t>E4-T001, E5-T009</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -17588,33 +17642,34 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>- Given same idempotency_key, no more than one broker order is placed
-- DecisionTrace stores request/response for each broker order</t>
+          <t>- Translator supports BUY/SELL for MIS/CNC and market/limit skeleton
+- Unit tests cover translation edge cases and rounding</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/engine.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/translator.py
+backend/tests/test_ai_tm_translator.py</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled, kite_mcp_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.order_place metrics (success/failure, retries).</t>
+          <t>Log translation warnings (e.g., rounding adjustments).</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -17622,9 +17677,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -17637,22 +17692,22 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>E4-T009</t>
+          <t>E4-T008</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Implement status polling and terminal state handling</t>
+          <t>Implement broker order placement with idempotency</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Poll broker order status for placed orders and update DecisionTrace and expected ledger state without assuming immediate completion.</t>
+          <t>Place orders via BrokerAdapter only after RiskGate allow, using idempotency and correlation IDs to ensure safety.</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>E1-T011, E4-T008</t>
+          <t>E3-T007, E4-T002, E1-T010</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -17662,7 +17717,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -17672,23 +17727,23 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>- Engine detects terminal states and records them
-- Non-terminal states result in bounded polling then exception</t>
+          <t>- Given same idempotency_key, no more than one broker order is placed
+- DecisionTrace stores request/response for each broker order</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/status_poller.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/engine.py</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>ai_execution_enabled, kite_mcp_enabled</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.status_poll metrics and timeout count.</t>
+          <t>Emit execution.order_place metrics (success/failure, retries).</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -17696,9 +17751,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -17711,22 +17766,22 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>E4-T010</t>
+          <t>E4-T009</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Handle partial fills safely</t>
+          <t>Implement status polling and terminal state handling</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Track partial fills and ensure no duplicate follow-up orders are placed; reconciliation must surface partial-fill exceptions when needed.</t>
+          <t>Poll broker order status for placed orders and update DecisionTrace and expected ledger state without assuming immediate completion.</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>E4-T009, E2-T007</t>
+          <t>E1-T011, E4-T008</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -17746,14 +17801,13 @@
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>- Partial fills are detected and recorded in DecisionTrace
-- Reconciler emits partial-fill delta and exception when applicable</t>
+          <t>- Engine detects terminal states and records them
+- Non-terminal states result in bounded polling then exception</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/execution/fills.py
-backend/app/services/ai_trading_manager/reconciliation_rules.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/status_poller.py</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
@@ -17763,7 +17817,7 @@
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>Emit execution.partial_fill events with filled_qty and remaining_qty.</t>
+          <t>Emit execution.status_poll metrics and timeout count.</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -17771,9 +17825,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
-      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -17786,22 +17840,22 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>E4-T012</t>
+          <t>E4-T010</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Implement execute API endpoint</t>
+          <t>Handle partial fills safely</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Expose the backend execution endpoint that takes plan_id + idempotency_key + authorization message reference and returns an execution outcome.</t>
+          <t>Track partial fills and ensure no duplicate follow-up orders are placed; reconciliation must surface partial-fill exceptions when needed.</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>E4-T003, E4-T008</t>
+          <t>E4-T009, E2-T007</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -17821,14 +17875,14 @@
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>- POST /api/ai/execute validates plan, runs RiskGate, and executes only on allow
-- Endpoint is gated by ai_execution_enabled and records DecisionTrace</t>
+          <t>- Partial fills are detected and recorded in DecisionTrace
+- Reconciler emits partial-fill delta and exception when applicable</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>backend/app/api/ai_trading_manager.py
-backend/tests/test_ai_tm_execute_api.py</t>
+          <t>backend/app/services/ai_trading_manager/execution/fills.py
+backend/app/services/ai_trading_manager/reconciliation_rules.py</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
@@ -17838,7 +17892,7 @@
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>Audit execute attempts with outcome allow/deny/error and correlation_id.</t>
+          <t>Emit execution.partial_fill events with filled_qty and remaining_qty.</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -17846,9 +17900,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr"/>
-      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -17861,59 +17915,59 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>E4-T014</t>
+          <t>E4-T012</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Add execution observability (metrics + structured logs)</t>
+          <t>Implement execute API endpoint</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Add metrics for retries, failures, veto rates, and broker latency to prioritize boring reliability.</t>
+          <t>Expose the backend execution endpoint that takes plan_id + idempotency_key + authorization message reference and returns an execution outcome.</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>E4-T012, E0-T009</t>
+          <t>E4-T003, E4-T008</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>- Metrics emitted for execute latency and error rate
-- Logs include correlation_id and idempotency_key</t>
+          <t>- POST /api/ai/execute validates plan, runs RiskGate, and executes only on allow
+- Endpoint is gated by ai_execution_enabled and records DecisionTrace</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/metrics.py
-backend/app/core/logging.py</t>
+          <t>backend/app/api/ai_trading_manager.py
+backend/tests/test_ai_tm_execute_api.py</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>Emit execution metrics with labels: broker, outcome, retry_count.</t>
+          <t>Audit execute attempts with outcome allow/deny/error and correlation_id.</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -17921,9 +17975,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
-      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -17931,64 +17985,64 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>E5-T007</t>
+          <t>E4-T014</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Implement tool router with explicit scopes</t>
+          <t>Add execution observability (metrics + structured logs)</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Implement tool routing in the orchestrator with explicit scope checks and auditing for ST tools and broker tools.</t>
+          <t>Add metrics for retries, failures, veto rates, and broker latency to prioritize boring reliability.</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>E5-T001, E1-T001</t>
+          <t>E4-T012, E0-T009</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>- Each tool call is logged with scope and parameters summary
-- Unauthorized tools are blocked and recorded in DecisionTrace</t>
+          <t>- Metrics emitted for execute latency and error rate
+- Logs include correlation_id and idempotency_key</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/tool_router.py
-backend/app/services/ai_trading_manager/tools/*.py</t>
+          <t>backend/app/services/ai_trading_manager/metrics.py
+backend/app/core/logging.py</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>Emit tool_router.denied metrics and tool latency histograms.</t>
+          <t>Emit execution metrics with labels: broker, outcome, retry_count.</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -17996,9 +18050,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -18011,22 +18065,22 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>E5-T008</t>
+          <t>E5-T007</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Implement intent parsing to TradeIntent</t>
+          <t>Implement tool router with explicit scopes</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Parse user messages into a TradeIntent structure; combine LLM extraction with deterministic validation and fallback parsing.</t>
+          <t>Implement tool routing in the orchestrator with explicit scope checks and auditing for ST tools and broker tools.</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>E5-T002, E0-T001</t>
+          <t>E5-T001, E1-T001</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -18046,14 +18100,14 @@
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>- TradeIntent extraction validates symbols/side/product/constraints
-- Invalid intents return a clarifying question instead of executing</t>
+          <t>- Each tool call is logged with scope and parameters summary
+- Unauthorized tools are blocked and recorded in DecisionTrace</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/intent_parser.py
-backend/tests/test_ai_tm_intent_parser.py</t>
+          <t>backend/app/services/ai_trading_manager/tool_router.py
+backend/app/services/ai_trading_manager/tools/*.py</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
@@ -18063,7 +18117,7 @@
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>Emit intent.parse success/failure counts with reason categories.</t>
+          <t>Emit tool_router.denied metrics and tool latency histograms.</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -18071,9 +18125,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr"/>
-      <c r="Q50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -18086,22 +18140,22 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>E5-T009</t>
+          <t>E5-T008</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Implement deterministic PlanEngine normalization</t>
+          <t>Implement intent parsing to TradeIntent</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Normalize and validate TradePlan/MonitorPlan structures deterministically so execution boundary is stable even if LLM output varies.</t>
+          <t>Parse user messages into a TradeIntent structure; combine LLM extraction with deterministic validation and fallback parsing.</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>E5-T008, E0-T001</t>
+          <t>E5-T002, E0-T001</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -18121,14 +18175,14 @@
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>- PlanEngine rejects invalid plans with explicit errors
-- Normalized plans are stable (ordering, defaults, ids) for same input</t>
+          <t>- TradeIntent extraction validates symbols/side/product/constraints
+- Invalid intents return a clarifying question instead of executing</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/plan_engine.py
-backend/tests/test_ai_tm_plan_engine.py</t>
+          <t>backend/app/services/ai_trading_manager/intent_parser.py
+backend/tests/test_ai_tm_intent_parser.py</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
@@ -18138,7 +18192,7 @@
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>Emit plan_engine.validation_error counts and plan_normalization timings.</t>
+          <t>Emit intent.parse success/failure counts with reason categories.</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -18146,9 +18200,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr"/>
-      <c r="Q51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -18161,22 +18215,22 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>E5-T013</t>
+          <t>E5-T009</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Implement message-as-authorization contract</t>
+          <t>Implement deterministic PlanEngine normalization</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Treat an explicit user message as authorization for delegated execution, without additional per-order confirmations, while still policy-gated.</t>
+          <t>Normalize and validate TradePlan/MonitorPlan structures deterministically so execution boundary is stable even if LLM output varies.</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>E5-T002, E4-T012</t>
+          <t>E5-T008, E0-T001</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -18196,24 +18250,24 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>- Execution requires authorization_message_id referencing the user message
-- DecisionTrace stores the exact user message used for authorization</t>
+          <t>- PlanEngine rejects invalid plans with explicit errors
+- Normalized plans are stable (ordering, defaults, ids) for same input</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/orchestrator.py
-backend/app/schemas/ai_trading_manager.py</t>
+          <t>backend/app/services/ai_trading_manager/plan_engine.py
+backend/tests/test_ai_tm_plan_engine.py</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>ai_execution_enabled</t>
+          <t>ai_assistant_enabled</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>Audit authorization usage with message_id + decision_id.</t>
+          <t>Emit plan_engine.validation_error counts and plan_normalization timings.</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -18221,9 +18275,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
-      <c r="Q52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -18231,27 +18285,27 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>E6-T004</t>
+          <t>E5-T013</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Implement deterministic condition evaluator</t>
+          <t>Implement message-as-authorization contract</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Evaluate monitor job conditions using quotes + portfolio state deterministically, producing triggers with reason details.</t>
+          <t>Treat an explicit user message as authorization for delegated execution, without additional per-order confirmations, while still policy-gated.</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>E1-T009, E6-T001</t>
+          <t>E5-T002, E4-T012</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -18266,29 +18320,29 @@
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>- Evaluator returns same result for same inputs
-- Evaluator records inputs_used in DecisionTrace</t>
+          <t>- Execution requires authorization_message_id referencing the user message
+- DecisionTrace stores the exact user message used for authorization</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/monitoring/evaluator.py
-backend/tests/test_ai_tm_monitor_evaluator.py</t>
+          <t>backend/app/services/ai_trading_manager/orchestrator.py
+backend/app/schemas/ai_trading_manager.py</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled</t>
+          <t>ai_execution_enabled</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>Emit monitoring.eval metrics and trigger counts.</t>
+          <t>Audit authorization usage with message_id + decision_id.</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -18296,9 +18350,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr"/>
-      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="n"/>
+      <c r="Q53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -18311,22 +18365,22 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>E6-T005</t>
+          <t>E6-T004</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Run monitor jobs on cadence and persist triggers</t>
+          <t>Implement deterministic condition evaluator</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Run monitor jobs on schedule, persist trigger events, and push action cards to the assistant thread.</t>
+          <t>Evaluate monitor job conditions using quotes + portfolio state deterministically, producing triggers with reason details.</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>E6-T002, E6-T004, E0-T005</t>
+          <t>E1-T009, E6-T001</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -18346,14 +18400,14 @@
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>- Scheduler computes next_run_ts and persists last_run_ts
-- Triggers are persisted and deduped per (job, window)</t>
+          <t>- Evaluator returns same result for same inputs
+- Evaluator records inputs_used in DecisionTrace</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/monitoring/scheduler.py
-backend/app/services/ai_trading_manager/monitoring/store.py</t>
+          <t>backend/app/services/ai_trading_manager/monitoring/evaluator.py
+backend/tests/test_ai_tm_monitor_evaluator.py</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
@@ -18363,7 +18417,7 @@
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>Emit monitoring.job_run metrics and trigger_dedupe hits.</t>
+          <t>Emit monitoring.eval metrics and trigger counts.</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -18371,9 +18425,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr"/>
-      <c r="Q54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="n"/>
+      <c r="P54" s="2" t="n"/>
+      <c r="Q54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -18386,22 +18440,22 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>E6-T007</t>
+          <t>E6-T005</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Integrate execute-on-instruction from triggers</t>
+          <t>Run monitor jobs on cadence and persist triggers</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>When a trigger fires, assistant proposes a plan; execution occurs only when user explicitly instructs (message = authorization).</t>
+          <t>Run monitor jobs on schedule, persist trigger events, and push action cards to the assistant thread.</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>E6-T006, E4-T011</t>
+          <t>E6-T002, E6-T004, E0-T005</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -18416,29 +18470,29 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>- Trigger flow creates a proposed plan and risk preview
-- No auto-execution occurs without explicit authorization message</t>
+          <t>- Scheduler computes next_run_ts and persists last_run_ts
+- Triggers are persisted and deduped per (job, window)</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/orchestrator.py
-frontend/src/components/ai/cards/MonitorTriggerCard.tsx</t>
+          <t>backend/app/services/ai_trading_manager/monitoring/scheduler.py
+backend/app/services/ai_trading_manager/monitoring/store.py</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>monitoring_enabled, ai_execution_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>Audit trigger→plan proposals with monitor_job_id and decision_id.</t>
+          <t>Emit monitoring.job_run metrics and trigger_dedupe hits.</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -18446,9 +18500,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr"/>
-      <c r="Q55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -18461,144 +18515,144 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
+          <t>E6-T007</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Integrate execute-on-instruction from triggers</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>When a trigger fires, assistant proposes a plan; execution occurs only when user explicitly instructs (message = authorization).</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>E6-T006, E4-T011</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>- Trigger flow creates a proposed plan and risk preview
+- No auto-execution occurs without explicit authorization message</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>backend/app/services/ai_trading_manager/orchestrator.py
+frontend/src/components/ai/cards/MonitorTriggerCard.tsx</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>monitoring_enabled, ai_execution_enabled</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>Audit trigger→plan proposals with monitor_job_id and decision_id.</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
           <t>E6-T008</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>Add monitoring telemetry and failure handling</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>Add metrics and robust failure handling for the scheduler (per-job errors, retries, backoff) to avoid noisy loops.</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>E6-T005</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>DevOps</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>- Scheduler logs failures per job and backs off
 - Metrics include job failure rate and mean run duration</t>
         </is>
       </c>
-      <c r="K56" s="2" t="inlineStr">
+      <c r="K57" s="2" t="inlineStr">
         <is>
           <t>backend/app/services/ai_trading_manager/monitoring/scheduler.py
 backend/app/services/ai_trading_manager/metrics.py</t>
         </is>
       </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>monitoring_enabled</t>
         </is>
       </c>
-      <c r="M56" s="2" t="inlineStr">
+      <c r="M57" s="2" t="inlineStr">
         <is>
           <t>Emit monitoring.scheduler.failure metrics and backoff state.</t>
         </is>
       </c>
-      <c r="N56" s="2" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr"/>
-      <c r="Q56" s="2" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>E0-T016</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>Add playbook lifecycle audit events</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>Extend audit model to capture playbook creation, edits, arming/unarming, and runs with stable linking to DecisionTraces.</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>E5-T016</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>- Playbook actions create DecisionTrace entries with action_type=PLAYBOOK_*
-- UI can filter traces by playbook_id</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>backend/app/models/ai_trading_manager_traces.py
-backend/app/services/ai_trading_manager/audit_store.py</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>monitoring_enabled</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="inlineStr">
-        <is>
-          <t>Emit playbook.audit events with playbook_id + armed_state.</t>
-        </is>
-      </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr"/>
-      <c r="Q57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="n"/>
+      <c r="P57" s="2" t="n"/>
+      <c r="Q57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -18611,22 +18665,22 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>E0-T017</t>
+          <t>E0-T016</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Implement trace redaction and secret scrubbing</t>
+          <t>Add playbook lifecycle audit events</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Prevent leakage of broker tokens, API keys, and PII into DecisionTrace storage and exports.</t>
+          <t>Extend audit model to capture playbook creation, edits, arming/unarming, and runs with stable linking to DecisionTraces.</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>E1-T006, E0-T003</t>
+          <t>E5-T016</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -18636,34 +18690,34 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>- All tokens/secrets are stored only in server-side secret tables
-- Trace payloads are scrubbed before persistence and export</t>
+          <t>- Playbook actions create DecisionTrace entries with action_type=PLAYBOOK_*
+- UI can filter traces by playbook_id</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>backend/app/services/ai_trading_manager/redaction.py
-backend/tests/test_ai_tm_redaction.py</t>
+          <t>backend/app/models/ai_trading_manager_traces.py
+backend/app/services/ai_trading_manager/audit_store.py</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>ai_assistant_enabled</t>
+          <t>monitoring_enabled</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>Log redaction hits count and redact types (token/key/PII).</t>
+          <t>Emit playbook.audit events with playbook_id + armed_state.</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -18671,9 +18725,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr"/>
-      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="n"/>
+      <c r="Q58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -18745,9 +18799,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr"/>
-      <c r="Q59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="n"/>
+      <c r="P59" s="2" t="n"/>
+      <c r="Q59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -18820,9 +18874,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O60" s="2" t="inlineStr"/>
-      <c r="P60" s="2" t="inlineStr"/>
-      <c r="Q60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="n"/>
+      <c r="Q60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -18895,9 +18949,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr"/>
-      <c r="Q61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="n"/>
+      <c r="Q61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -18970,9 +19024,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
-      <c r="Q62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
+      <c r="Q62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -19044,9 +19098,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr"/>
-      <c r="Q63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="n"/>
+      <c r="Q63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -19119,9 +19173,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr"/>
-      <c r="Q64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -19193,9 +19247,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr"/>
-      <c r="Q65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="n"/>
+      <c r="Q65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -19268,9 +19322,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr"/>
-      <c r="Q66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -19343,9 +19397,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr"/>
-      <c r="Q67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="n"/>
+      <c r="P67" s="2" t="n"/>
+      <c r="Q67" s="2" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -19418,9 +19472,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O68" s="2" t="inlineStr"/>
-      <c r="P68" s="2" t="inlineStr"/>
-      <c r="Q68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="n"/>
+      <c r="P68" s="2" t="n"/>
+      <c r="Q68" s="2" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -19493,9 +19547,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
+      <c r="Q69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -19568,9 +19622,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
+      <c r="Q70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -19643,9 +19697,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr"/>
-      <c r="Q71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="n"/>
+      <c r="P71" s="2" t="n"/>
+      <c r="Q71" s="2" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -19718,9 +19772,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O72" s="2" t="inlineStr"/>
-      <c r="P72" s="2" t="inlineStr"/>
-      <c r="Q72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="n"/>
+      <c r="P72" s="2" t="n"/>
+      <c r="Q72" s="2" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -19793,9 +19847,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O73" s="2" t="inlineStr"/>
-      <c r="P73" s="2" t="inlineStr"/>
-      <c r="Q73" s="2" t="inlineStr"/>
+      <c r="O73" s="2" t="n"/>
+      <c r="P73" s="2" t="n"/>
+      <c r="Q73" s="2" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -19868,9 +19922,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O74" s="2" t="inlineStr"/>
-      <c r="P74" s="2" t="inlineStr"/>
-      <c r="Q74" s="2" t="inlineStr"/>
+      <c r="O74" s="2" t="n"/>
+      <c r="P74" s="2" t="n"/>
+      <c r="Q74" s="2" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -19943,9 +19997,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr"/>
-      <c r="Q75" s="2" t="inlineStr"/>
+      <c r="O75" s="2" t="n"/>
+      <c r="P75" s="2" t="n"/>
+      <c r="Q75" s="2" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -20017,9 +20071,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr"/>
-      <c r="Q76" s="2" t="inlineStr"/>
+      <c r="O76" s="2" t="n"/>
+      <c r="P76" s="2" t="n"/>
+      <c r="Q76" s="2" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -20092,9 +20146,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O77" s="2" t="inlineStr"/>
-      <c r="P77" s="2" t="inlineStr"/>
-      <c r="Q77" s="2" t="inlineStr"/>
+      <c r="O77" s="2" t="n"/>
+      <c r="P77" s="2" t="n"/>
+      <c r="Q77" s="2" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -20167,9 +20221,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O78" s="2" t="inlineStr"/>
-      <c r="P78" s="2" t="inlineStr"/>
-      <c r="Q78" s="2" t="inlineStr"/>
+      <c r="O78" s="2" t="n"/>
+      <c r="P78" s="2" t="n"/>
+      <c r="Q78" s="2" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -20241,9 +20295,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O79" s="2" t="inlineStr"/>
-      <c r="P79" s="2" t="inlineStr"/>
-      <c r="Q79" s="2" t="inlineStr"/>
+      <c r="O79" s="2" t="n"/>
+      <c r="P79" s="2" t="n"/>
+      <c r="Q79" s="2" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -20315,9 +20369,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O80" s="2" t="inlineStr"/>
-      <c r="P80" s="2" t="inlineStr"/>
-      <c r="Q80" s="2" t="inlineStr"/>
+      <c r="O80" s="2" t="n"/>
+      <c r="P80" s="2" t="n"/>
+      <c r="Q80" s="2" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -20389,9 +20443,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O81" s="2" t="inlineStr"/>
-      <c r="P81" s="2" t="inlineStr"/>
-      <c r="Q81" s="2" t="inlineStr"/>
+      <c r="O81" s="2" t="n"/>
+      <c r="P81" s="2" t="n"/>
+      <c r="Q81" s="2" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -20463,9 +20517,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O82" s="2" t="inlineStr"/>
-      <c r="P82" s="2" t="inlineStr"/>
-      <c r="Q82" s="2" t="inlineStr"/>
+      <c r="O82" s="2" t="n"/>
+      <c r="P82" s="2" t="n"/>
+      <c r="Q82" s="2" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -20538,9 +20592,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O83" s="2" t="inlineStr"/>
-      <c r="P83" s="2" t="inlineStr"/>
-      <c r="Q83" s="2" t="inlineStr"/>
+      <c r="O83" s="2" t="n"/>
+      <c r="P83" s="2" t="n"/>
+      <c r="Q83" s="2" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -20613,13 +20667,22 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O84" s="2" t="inlineStr"/>
-      <c r="P84" s="2" t="inlineStr"/>
-      <c r="Q84" s="2" t="inlineStr"/>
+      <c r="O84" s="2" t="n"/>
+      <c r="P84" s="2" t="n"/>
+      <c r="Q84" s="2" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q84"/>
-  <dataValidations count="3">
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
@@ -20826,9 +20889,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -20854,7 +20917,7 @@
           <t>Add the UI shell for a persistent right-side assistant panel, gated behind ai_assistant_enabled to keep Phase 0 merge-safe.</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>FE</t>
@@ -20897,9 +20960,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -20972,9 +21035,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -21047,9 +21110,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -21122,9 +21185,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -21197,9 +21260,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -21272,9 +21335,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -21347,9 +21410,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -21422,9 +21485,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -21497,9 +21560,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -21572,9 +21635,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -21600,7 +21663,7 @@
           <t>Implement ai_assistant_enabled/ai_execution_enabled/kite_mcp_enabled/monitoring_enabled UI gating via query params and local storage.</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>FE</t>
@@ -21643,9 +21706,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -21717,9 +21780,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -21792,9 +21855,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -21867,9 +21930,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -21941,9 +22004,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -22016,9 +22079,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -22091,9 +22154,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -22166,9 +22229,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -22240,9 +22303,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -22315,9 +22378,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -22389,9 +22452,9 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -22464,13 +22527,22 @@
           <t>Not Started</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q24"/>
-  <dataValidations count="3">
+  <dataValidations count="6">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"S,M,L"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"L,M,H"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Not Started,In Progress,Blocked,Done"</formula1>
     </dataValidation>
